--- a/output/12-specific-quality-continuous.xlsx
+++ b/output/12-specific-quality-continuous.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
+    <sheet name="nr_studies" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -407,25 +408,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D2">
-        <v>0.009673618193135317</v>
+        <v>0.01050102993335134</v>
       </c>
       <c r="E2">
-        <v>0.0254046440343649</v>
+        <v>0.02417734286425065</v>
       </c>
       <c r="F2">
-        <v>94.74943612130193</v>
+        <v>94.68175202369162</v>
       </c>
       <c r="G2">
-        <v>68.62015231847495</v>
+        <v>66.01097447752926</v>
       </c>
       <c r="H2">
-        <v>26.12928380282698</v>
+        <v>28.67077754616236</v>
       </c>
     </row>
     <row r="3">
@@ -435,25 +436,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D3">
-        <v>1.894199891949774e-09</v>
+        <v>4.738516887814818e-09</v>
       </c>
       <c r="E3">
-        <v>0.02306602491647611</v>
+        <v>0.02009128142684382</v>
       </c>
       <c r="F3">
-        <v>88.15796243268503</v>
+        <v>86.02162510612868</v>
       </c>
       <c r="G3">
-        <v>88.15795519308523</v>
+        <v>86.02160481798387</v>
       </c>
       <c r="H3">
-        <v>7.239599792592549e-06</v>
+        <v>2.028814481700196e-05</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,22 +524,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.0815243610065168</v>
+        <v>-0.08038683845655963</v>
       </c>
       <c r="D2">
-        <v>0.01617366743689422</v>
+        <v>0.01672740259756128</v>
       </c>
       <c r="E2">
-        <v>3.035522491641479</v>
+        <v>3.09774053754714</v>
       </c>
       <c r="F2">
-        <v>-0.1320625579126693</v>
+        <v>-0.1320808077405351</v>
       </c>
       <c r="G2">
-        <v>-0.03056342679473891</v>
+        <v>-0.02825679694101814</v>
       </c>
       <c r="H2">
-        <v>0.01454370823698874</v>
+        <v>0.01583629625007904</v>
       </c>
     </row>
     <row r="3">
@@ -553,22 +554,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.07329809346099136</v>
+        <v>0.06759845388669267</v>
       </c>
       <c r="D3">
-        <v>0.03994300176390006</v>
+        <v>0.03692084892385764</v>
       </c>
       <c r="E3">
-        <v>2.341541148313324</v>
+        <v>2.364220688383331</v>
       </c>
       <c r="F3">
-        <v>-0.07635990887363207</v>
+        <v>-0.06974834572080198</v>
       </c>
       <c r="G3">
-        <v>0.2197262135418615</v>
+        <v>0.2024300901985739</v>
       </c>
       <c r="H3">
-        <v>0.1885774150384675</v>
+        <v>0.1882545363450573</v>
       </c>
     </row>
     <row r="4">
@@ -579,26 +580,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:quality_score_out_of_5</t>
+          <t>specific_factorautonomous motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.08276776476778194</v>
+        <v>0.06409146101902445</v>
       </c>
       <c r="D4">
-        <v>0.01270701610380601</v>
+        <v>0.02998690607791928</v>
       </c>
       <c r="E4">
-        <v>20.93076229764497</v>
+        <v>2.526484402681548</v>
       </c>
       <c r="F4">
-        <v>0.05646640681610021</v>
+        <v>-0.04218866321766444</v>
       </c>
       <c r="G4">
-        <v>0.1089543250101053</v>
+        <v>0.1689373471801794</v>
       </c>
       <c r="H4">
-        <v>1.846383580135123e-06</v>
+        <v>0.138578277663098</v>
       </c>
     </row>
     <row r="5">
@@ -609,26 +610,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorCoherence of mind:quality_score_out_of_5</t>
+          <t>specific_factorAutonomous motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.02209480731690314</v>
+        <v>0.08693503224392006</v>
       </c>
       <c r="D5">
-        <v>5.777936488193538e-17</v>
+        <v>0.01466544406032285</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>16.83048426842539</v>
       </c>
       <c r="F5">
-        <v>0.0220948073169024</v>
+        <v>0.05613083983527371</v>
       </c>
       <c r="G5">
-        <v>0.02209480731690387</v>
+        <v>0.117573875588087</v>
       </c>
       <c r="H5">
-        <v>1.664531360306624e-15</v>
+        <v>1.673174614272105e-05</v>
       </c>
     </row>
     <row r="6">
@@ -639,26 +640,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:quality_score_out_of_5</t>
+          <t>specific_factorCoherence of mind:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C6">
-        <v>-0.0953111845709407</v>
+        <v>0.02209480731690315</v>
       </c>
       <c r="D6">
-        <v>0.03686745626087731</v>
+        <v>7.893400942652503e-18</v>
       </c>
       <c r="E6">
-        <v>1.180827437776669</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>-0.4005743067382177</v>
+        <v>0.02209480731690305</v>
       </c>
       <c r="G6">
-        <v>0.2289963929624844</v>
+        <v>0.02209480731690325</v>
       </c>
       <c r="H6">
-        <v>0.2024008432560426</v>
+        <v>2.273962933889357e-16</v>
       </c>
     </row>
     <row r="7">
@@ -669,26 +670,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:quality_score_out_of_5</t>
+          <t>specific_factorControlled causality orientation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.01799937967599444</v>
+        <v>-0.1091164222136916</v>
       </c>
       <c r="D7">
-        <v>0.01180030009293204</v>
+        <v>0.02729958341583065</v>
       </c>
       <c r="E7">
-        <v>13.2703548290872</v>
+        <v>1.207656193224156</v>
       </c>
       <c r="F7">
-        <v>-0.04341432108986043</v>
+        <v>-0.3300433457826743</v>
       </c>
       <c r="G7">
-        <v>0.007438842872032937</v>
+        <v>0.1231435029776174</v>
       </c>
       <c r="H7">
-        <v>0.150609560884574</v>
+        <v>0.1217147281575946</v>
       </c>
     </row>
     <row r="8">
@@ -699,26 +700,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:quality_score_out_of_5</t>
+          <t>specific_factorcontrolled motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.06638965445035863</v>
+        <v>-0.01322591942522011</v>
       </c>
       <c r="D8">
-        <v>0.01279042514568867</v>
+        <v>0.03243343179691778</v>
       </c>
       <c r="E8">
-        <v>4.052808323711747</v>
+        <v>1.246954829531849</v>
       </c>
       <c r="F8">
-        <v>0.03114720714193621</v>
+        <v>-0.2680238895403773</v>
       </c>
       <c r="G8">
-        <v>0.1014672306869007</v>
+        <v>0.2433013146332001</v>
       </c>
       <c r="H8">
-        <v>0.006293623792767349</v>
+        <v>0.7423562887958068</v>
       </c>
     </row>
     <row r="9">
@@ -729,26 +730,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs:quality_score_out_of_5</t>
+          <t>specific_factorControlled motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.05372777060772631</v>
+        <v>-0.01761615315121667</v>
       </c>
       <c r="D9">
-        <v>0.01735494842324395</v>
+        <v>0.01293069483697845</v>
       </c>
       <c r="E9">
-        <v>1.735111937838685</v>
+        <v>11.11297563027819</v>
       </c>
       <c r="F9">
-        <v>-0.1395966142181359</v>
+        <v>-0.04601047413748822</v>
       </c>
       <c r="G9">
-        <v>0.03294310760708115</v>
+        <v>0.01080661072118652</v>
       </c>
       <c r="H9">
-        <v>0.1075330152891759</v>
+        <v>0.2000164847216461</v>
       </c>
     </row>
     <row r="10">
@@ -759,26 +760,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:quality_score_out_of_5</t>
+          <t>specific_factoremotional intelligence:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.00243696269114149</v>
+        <v>0.03945663819770675</v>
       </c>
       <c r="D10">
-        <v>0.01435650533162405</v>
+        <v>0.01639456016055033</v>
       </c>
       <c r="E10">
-        <v>4.108071705562793</v>
+        <v>1.450796996114304</v>
       </c>
       <c r="F10">
-        <v>-0.03699602612549929</v>
+        <v>-0.06390039587383127</v>
       </c>
       <c r="G10">
-        <v>0.04186237415712816</v>
+        <v>0.1419761941331105</v>
       </c>
       <c r="H10">
-        <v>0.8732421003602869</v>
+        <v>0.1834487432629405</v>
       </c>
     </row>
     <row r="11">
@@ -789,26 +790,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:quality_score_out_of_5</t>
+          <t>specific_factorEmotional intelligence:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.004892681072541091</v>
+        <v>0.07849192988793367</v>
       </c>
       <c r="D11">
-        <v>0.01192199972046259</v>
+        <v>0.01083125330775983</v>
       </c>
       <c r="E11">
-        <v>8.20618223694319</v>
+        <v>2.95121416178325</v>
       </c>
       <c r="F11">
-        <v>-0.02247590365124587</v>
+        <v>0.04383113226987891</v>
       </c>
       <c r="G11">
-        <v>0.03225393796130915</v>
+        <v>0.1129639958178624</v>
       </c>
       <c r="H11">
-        <v>0.6920231899473881</v>
+        <v>0.005692551799216691</v>
       </c>
     </row>
     <row r="12">
@@ -819,26 +820,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:quality_score_out_of_5</t>
+          <t>specific_factorentity beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.01506625156029588</v>
+        <v>-0.05049443503949706</v>
       </c>
       <c r="D12">
-        <v>0.0400010365439347</v>
+        <v>0.01918815552543988</v>
       </c>
       <c r="E12">
-        <v>1.860866708667462</v>
+        <v>1.773054735817533</v>
       </c>
       <c r="F12">
-        <v>-0.1974880583487534</v>
+        <v>-0.1431096355807628</v>
       </c>
       <c r="G12">
-        <v>0.1683640686439201</v>
+        <v>0.04299744002136441</v>
       </c>
       <c r="H12">
-        <v>0.7449915556650313</v>
+        <v>0.1344537320806385</v>
       </c>
     </row>
     <row r="13">
@@ -849,26 +850,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:quality_score_out_of_5</t>
+          <t>specific_factorExternal pressure in terms of constraints:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C13">
-        <v>-0.06300383723864061</v>
+        <v>0.001618037265605962</v>
       </c>
       <c r="D13">
-        <v>0.01750160117554773</v>
+        <v>0.01418234821761301</v>
       </c>
       <c r="E13">
-        <v>8.95791267045273</v>
+        <v>4.208990174635542</v>
       </c>
       <c r="F13">
-        <v>-0.1023475193935505</v>
+        <v>-0.03698237407686954</v>
       </c>
       <c r="G13">
-        <v>-0.02346334769605465</v>
+        <v>0.04021362747331313</v>
       </c>
       <c r="H13">
-        <v>0.00575063157585535</v>
+        <v>0.9144046917807476</v>
       </c>
     </row>
     <row r="14">
@@ -879,26 +880,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:quality_score_out_of_5</t>
+          <t>specific_factorexternal pressures:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.03192132164864768</v>
+        <v>0.001815196716550594</v>
       </c>
       <c r="D14">
-        <v>0.004156858034060233</v>
+        <v>0.02017584335001075</v>
       </c>
       <c r="E14">
-        <v>1.086973428705514</v>
+        <v>3.531234933462535</v>
       </c>
       <c r="F14">
-        <v>-0.01187415001830502</v>
+        <v>-0.05719758053109135</v>
       </c>
       <c r="G14">
-        <v>0.07559455757767118</v>
+        <v>0.06081533375684401</v>
       </c>
       <c r="H14">
-        <v>0.07028549537509732</v>
+        <v>0.9331789256763086</v>
       </c>
     </row>
     <row r="15">
@@ -909,26 +910,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:quality_score_out_of_5</t>
+          <t>specific_factorExternal pressures:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C15">
-        <v>-0.02081650813285849</v>
+        <v>0.005825875148950065</v>
       </c>
       <c r="D15">
-        <v>0.01742974430494226</v>
+        <v>0.02204580829109025</v>
       </c>
       <c r="E15">
-        <v>1.923028481849201</v>
+        <v>2.912248754853433</v>
       </c>
       <c r="F15">
-        <v>-0.0984450358919885</v>
+        <v>-0.06545120688147212</v>
       </c>
       <c r="G15">
-        <v>0.05706383097090309</v>
+        <v>0.07704380848149581</v>
       </c>
       <c r="H15">
-        <v>0.3588735383522081</v>
+        <v>0.8091683324602408</v>
       </c>
     </row>
     <row r="16">
@@ -939,26 +940,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:quality_score_out_of_5</t>
+          <t>specific_factorExtrinsic goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.09025696279680268</v>
+        <v>0.01302730987081008</v>
       </c>
       <c r="D16">
-        <v>0.02466605299667198</v>
+        <v>0.03262396179290786</v>
       </c>
       <c r="E16">
-        <v>1.860866708667464</v>
+        <v>1.010419919374926</v>
       </c>
       <c r="F16">
-        <v>-0.02360068248915385</v>
+        <v>-0.3726803044013648</v>
       </c>
       <c r="G16">
-        <v>0.2018031812470925</v>
+        <v>0.394896689701447</v>
       </c>
       <c r="H16">
-        <v>0.07453174208733503</v>
+        <v>0.7575855902921956</v>
       </c>
     </row>
     <row r="17">
@@ -969,26 +970,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help:quality_score_out_of_5</t>
+          <t>specific_factorill-being:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.05046243237638642</v>
+        <v>-0.03130389076164898</v>
       </c>
       <c r="D17">
-        <v>0.01235004414036841</v>
+        <v>0.01267602444907415</v>
       </c>
       <c r="E17">
-        <v>8.783879728208367</v>
+        <v>1.180801502265945</v>
       </c>
       <c r="F17">
-        <v>0.02245867956263555</v>
+        <v>-0.1433513669258008</v>
       </c>
       <c r="G17">
-        <v>0.07838706102498186</v>
+        <v>0.08153593821042554</v>
       </c>
       <c r="H17">
-        <v>0.002862008746728059</v>
+        <v>0.2130021832897485</v>
       </c>
     </row>
     <row r="18">
@@ -999,26 +1000,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorLow personal responsibility for others':quality_score_out_of_5</t>
+          <t>specific_factorIll-being:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.03649326558501131</v>
+        <v>-0.06714524287240692</v>
       </c>
       <c r="D18">
-        <v>0.01235004413615642</v>
+        <v>0.02016984824793189</v>
       </c>
       <c r="E18">
-        <v>8.783879728209067</v>
+        <v>6.830770620411004</v>
       </c>
       <c r="F18">
-        <v>0.008466401612059554</v>
+        <v>-0.1146744483761533</v>
       </c>
       <c r="G18">
-        <v>0.06446283916052062</v>
+        <v>-0.01930933135596126</v>
       </c>
       <c r="H18">
-        <v>0.01648117744083595</v>
+        <v>0.01297947007555689</v>
       </c>
     </row>
     <row r="19">
@@ -1029,26 +1030,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:quality_score_out_of_5</t>
+          <t>specific_factorIncremental beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.07523597147015545</v>
+        <v>0.03421111168595194</v>
       </c>
       <c r="D19">
-        <v>0.01390025078538051</v>
+        <v>0.006644718411934344</v>
       </c>
       <c r="E19">
-        <v>2.692914818765693</v>
+        <v>2.868339171649065</v>
       </c>
       <c r="F19">
-        <v>0.02813882839753669</v>
+        <v>0.01251748844579346</v>
       </c>
       <c r="G19">
-        <v>0.1219998219649447</v>
+        <v>0.0558725446238746</v>
       </c>
       <c r="H19">
-        <v>0.01617946127629661</v>
+        <v>0.01582888153783345</v>
       </c>
     </row>
     <row r="20">
@@ -1059,26 +1060,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:quality_score_out_of_5</t>
+          <t>specific_factorInternal pressures:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.04473302765388353</v>
+        <v>-0.01444677041818615</v>
       </c>
       <c r="D20">
-        <v>0.01420808410176617</v>
+        <v>0.02076159435187375</v>
       </c>
       <c r="E20">
-        <v>9.33750197466761</v>
+        <v>1.982369647070977</v>
       </c>
       <c r="F20">
-        <v>-0.07657738592123924</v>
+        <v>-0.1041641637827484</v>
       </c>
       <c r="G20">
-        <v>-0.01279750299636489</v>
+        <v>0.07550384639372573</v>
       </c>
       <c r="H20">
-        <v>0.01121137139736869</v>
+        <v>0.5590458034826132</v>
       </c>
     </row>
     <row r="21">
@@ -1089,26 +1090,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:quality_score_out_of_5</t>
+          <t>specific_factorIntrinsic goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.07613663729713384</v>
+        <v>0.1162573516665959</v>
       </c>
       <c r="D21">
-        <v>0.01079173327445822</v>
+        <v>0.008356781942183802</v>
       </c>
       <c r="E21">
-        <v>17.85287030255391</v>
+        <v>1.010419919374927</v>
       </c>
       <c r="F21">
-        <v>0.053547009685385</v>
+        <v>0.01315465269071043</v>
       </c>
       <c r="G21">
-        <v>0.09864837760567408</v>
+        <v>0.2169139596945611</v>
       </c>
       <c r="H21">
-        <v>1.427558254312199e-06</v>
+        <v>0.04433326654204573</v>
       </c>
     </row>
     <row r="22">
@@ -1119,26 +1120,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious):quality_score_out_of_5</t>
+          <t>specific_factorInvitation from others to help:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C22">
-        <v>-0.01441322549287863</v>
+        <v>0.04990950477122066</v>
       </c>
       <c r="D22">
-        <v>2.646409627996746e-18</v>
+        <v>0.0105837277181122</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4.021386488262815</v>
       </c>
       <c r="F22">
-        <v>-0.01441322549287867</v>
+        <v>0.02062447308674464</v>
       </c>
       <c r="G22">
-        <v>-0.0144132254928786</v>
+        <v>0.07910896735415154</v>
       </c>
       <c r="H22">
-        <v>1.168815422300665e-16</v>
+        <v>0.00905554480097511</v>
       </c>
     </row>
     <row r="23">
@@ -1149,26 +1150,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:quality_score_out_of_5</t>
+          <t>specific_factorlow personal responsibility for others:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.000811379913378882</v>
+        <v>0.03593966891617238</v>
       </c>
       <c r="D23">
-        <v>0.0528652562609532</v>
+        <v>0.01058372771817323</v>
       </c>
       <c r="E23">
-        <v>1.421145944712003</v>
+        <v>4.021386488262832</v>
       </c>
       <c r="F23">
-        <v>-0.3303252199972456</v>
+        <v>0.006631448164043856</v>
       </c>
       <c r="G23">
-        <v>0.3317701373070829</v>
+        <v>0.06518619762258941</v>
       </c>
       <c r="H23">
-        <v>0.9896240650306244</v>
+        <v>0.02712167752657865</v>
       </c>
     </row>
     <row r="24">
@@ -1179,26 +1180,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation:quality_score_out_of_5</t>
+          <t>specific_factormastery goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.09727455364259761</v>
+        <v>0.03707843442446104</v>
       </c>
       <c r="D24">
-        <v>0.1231761878611</v>
+        <v>0.02491171919005118</v>
       </c>
       <c r="E24">
-        <v>1.017861739652412</v>
+        <v>1.761808012946369</v>
       </c>
       <c r="F24">
-        <v>-0.9215557946807497</v>
+        <v>-0.08504319198010488</v>
       </c>
       <c r="G24">
-        <v>0.8862314812443782</v>
+        <v>0.158102538603546</v>
       </c>
       <c r="H24">
-        <v>0.5715855293153651</v>
+        <v>0.2905840276320887</v>
       </c>
     </row>
     <row r="25">
@@ -1209,26 +1210,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorNegative life events:quality_score_out_of_5</t>
+          <t>specific_factorMastery goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.02953482427451321</v>
+        <v>0.07236127875975673</v>
       </c>
       <c r="D25">
-        <v>4.738755168728501e-17</v>
+        <v>0.02649901385301226</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2.256139320596406</v>
       </c>
       <c r="F25">
-        <v>0.0295348242745126</v>
+        <v>-0.02997040183141799</v>
       </c>
       <c r="G25">
-        <v>0.02953482427451381</v>
+        <v>0.1731918287476226</v>
       </c>
       <c r="H25">
-        <v>1.02113620795072e-15</v>
+        <v>0.09802018249363208</v>
       </c>
     </row>
     <row r="26">
@@ -1239,26 +1240,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:quality_score_out_of_5</t>
+          <t>specific_factorneed frustration:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C26">
-        <v>-0.0687005722783558</v>
+        <v>-0.03184731202592235</v>
       </c>
       <c r="D26">
-        <v>0.06798549837841673</v>
+        <v>0.02222360175548553</v>
       </c>
       <c r="E26">
-        <v>1.630493926645765</v>
+        <v>1.751872895168631</v>
       </c>
       <c r="F26">
-        <v>-0.4095009290658818</v>
+        <v>-0.140764093258119</v>
       </c>
       <c r="G26">
-        <v>0.2889255262248503</v>
+        <v>0.07783112639008531</v>
       </c>
       <c r="H26">
-        <v>0.4379149343873073</v>
+        <v>0.304227762842163</v>
       </c>
     </row>
     <row r="27">
@@ -1269,26 +1270,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:quality_score_out_of_5</t>
+          <t>specific_factorNeed frustration:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.06353546829311142</v>
+        <v>-0.04965894854909369</v>
       </c>
       <c r="D27">
-        <v>0.0158254723744405</v>
+        <v>0.01818781287497085</v>
       </c>
       <c r="E27">
-        <v>3.690230890244981</v>
+        <v>8.437607329215883</v>
       </c>
       <c r="F27">
-        <v>0.01818706754848452</v>
+        <v>-0.09101281875130696</v>
       </c>
       <c r="G27">
-        <v>0.1086230007046619</v>
+        <v>-0.008134106753154959</v>
       </c>
       <c r="H27">
-        <v>0.0185918386162463</v>
+        <v>0.02451035800622953</v>
       </c>
     </row>
     <row r="28">
@@ -1299,26 +1300,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:quality_score_out_of_5</t>
+          <t>specific_factorneed satisfaction:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.04935541729547906</v>
+        <v>0.07989471230973494</v>
       </c>
       <c r="D28">
-        <v>0.01653388288283629</v>
+        <v>0.02222360175548561</v>
       </c>
       <c r="E28">
-        <v>6.735623215651685</v>
+        <v>1.751872895168625</v>
       </c>
       <c r="F28">
-        <v>0.009985555958995331</v>
+        <v>-0.02977278272746995</v>
       </c>
       <c r="G28">
-        <v>0.08857249979338667</v>
+        <v>0.187661600205221</v>
       </c>
       <c r="H28">
-        <v>0.02123947953340174</v>
+        <v>0.08383578952518209</v>
       </c>
     </row>
     <row r="29">
@@ -1329,26 +1330,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:quality_score_out_of_5</t>
+          <t>specific_factorNeed satisfaction:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.0008356601599827355</v>
+        <v>0.07546040659670285</v>
       </c>
       <c r="D29">
-        <v>0.02031874999850892</v>
+        <v>0.01166600150335398</v>
       </c>
       <c r="E29">
-        <v>1.199971540566396</v>
+        <v>16.72876378544619</v>
       </c>
       <c r="F29">
-        <v>-0.1731434840046749</v>
+        <v>0.05091651332727965</v>
       </c>
       <c r="G29">
-        <v>0.1747642302304248</v>
+        <v>0.09991320347135224</v>
       </c>
       <c r="H29">
-        <v>0.9729503854350254</v>
+        <v>6.107683179574565e-06</v>
       </c>
     </row>
     <row r="30">
@@ -1359,26 +1360,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:quality_score_out_of_5</t>
+          <t>specific_factorNegative beliefs (religious):quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C30">
-        <v>-0.04149564449495707</v>
+        <v>-0.01441322549287863</v>
       </c>
       <c r="D30">
-        <v>0.02235606445686533</v>
+        <v>9.360583149778906e-18</v>
       </c>
       <c r="E30">
-        <v>4.8800285819117</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>-0.09908890087734988</v>
+        <v>-0.01441322549287875</v>
       </c>
       <c r="G30">
-        <v>0.01637469408226805</v>
+        <v>-0.01441322549287851</v>
       </c>
       <c r="H30">
-        <v>0.1238420534387593</v>
+        <v>4.134202744520385e-16</v>
       </c>
     </row>
     <row r="31">
@@ -1389,26 +1390,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:quality_score_out_of_5</t>
+          <t>specific_factorNegative beliefs about knowledge and learning:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C31">
-        <v>-0.03875858283708637</v>
+        <v>0.01630289155753079</v>
       </c>
       <c r="D31">
-        <v>0.01040222711687504</v>
+        <v>0.01688798170163598</v>
       </c>
       <c r="E31">
-        <v>3.377909792557458</v>
+        <v>1.316884563556875</v>
       </c>
       <c r="F31">
-        <v>-0.06976928529354794</v>
+        <v>-0.1072422453833689</v>
       </c>
       <c r="G31">
-        <v>-0.007673042615831762</v>
+        <v>0.1393522188449817</v>
       </c>
       <c r="H31">
-        <v>0.02740248330956833</v>
+        <v>0.4779484577226506</v>
       </c>
     </row>
     <row r="32">
@@ -1419,26 +1420,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:quality_score_out_of_5</t>
+          <t>specific_factorNegative beliefs about motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.05373834712181162</v>
+        <v>-0.09453710100871053</v>
       </c>
       <c r="D32">
-        <v>0.01150343416733671</v>
+        <v>0.1206387895358786</v>
       </c>
       <c r="E32">
-        <v>6.648299395402391</v>
+        <v>1.022221591693415</v>
       </c>
       <c r="F32">
-        <v>0.02628836593928919</v>
+        <v>-0.9139729123880314</v>
       </c>
       <c r="G32">
-        <v>0.08110734951252373</v>
+        <v>0.8767397243791734</v>
       </c>
       <c r="H32">
-        <v>0.002604019861392154</v>
+        <v>0.5735969105723776</v>
       </c>
     </row>
     <row r="33">
@@ -1449,26 +1450,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:quality_score_out_of_5</t>
+          <t>specific_factorNegative life events:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.06736309786890028</v>
+        <v>0.02953482427451322</v>
       </c>
       <c r="D33">
-        <v>0.01114634262607143</v>
+        <v>7.247512510705562e-18</v>
       </c>
       <c r="E33">
-        <v>4.181160121405167</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.03702283918244246</v>
+        <v>0.02953482427451313</v>
       </c>
       <c r="G33">
-        <v>0.09757928102187573</v>
+        <v>0.02953482427451332</v>
       </c>
       <c r="H33">
-        <v>0.003255015841457486</v>
+        <v>1.561738722248235e-16</v>
       </c>
     </row>
     <row r="34">
@@ -1479,26 +1480,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:quality_score_out_of_5</t>
+          <t>specific_factornegative personality:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C34">
-        <v>-0.03400580175716373</v>
+        <v>-0.1574653301147098</v>
       </c>
       <c r="D34">
-        <v>0.06189039292422858</v>
+        <v>0.05550396115364663</v>
       </c>
       <c r="E34">
-        <v>2.248193511254205</v>
+        <v>1.071322119829899</v>
       </c>
       <c r="F34">
-        <v>-0.2673727968765656</v>
+        <v>-0.6423751691755645</v>
       </c>
       <c r="G34">
-        <v>0.2031292789720564</v>
+        <v>0.4174782746825588</v>
       </c>
       <c r="H34">
-        <v>0.6322992202304869</v>
+        <v>0.2004906917804437</v>
       </c>
     </row>
     <row r="35">
@@ -1509,26 +1510,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':quality_score_out_of_5</t>
+          <t>specific_factorNegative personality:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.07457359108967607</v>
+        <v>-0.005675413084164995</v>
       </c>
       <c r="D35">
-        <v>0.01012906981673843</v>
+        <v>0.008587761392103948</v>
       </c>
       <c r="E35">
-        <v>1.404002091337819</v>
+        <v>1.317128675950272</v>
       </c>
       <c r="F35">
-        <v>0.007576823301244454</v>
+        <v>-0.06858382140229438</v>
       </c>
       <c r="G35">
-        <v>0.1409038551575514</v>
+        <v>0.05727794931145203</v>
       </c>
       <c r="H35">
-        <v>0.04315772510212691</v>
+        <v>0.6052016675392591</v>
       </c>
     </row>
     <row r="36">
@@ -1539,26 +1540,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:quality_score_out_of_5</t>
+          <t>specific_factorothers abilities:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.06255654613974994</v>
+        <v>0.04639016634370466</v>
       </c>
       <c r="D36">
-        <v>0.01911428266250062</v>
+        <v>0.01605759104799182</v>
       </c>
       <c r="E36">
-        <v>2.108800332452199</v>
+        <v>1.216667704465556</v>
       </c>
       <c r="F36">
-        <v>-0.01566719292114155</v>
+        <v>-0.08871005353920522</v>
       </c>
       <c r="G36">
-        <v>0.1400191942868871</v>
+        <v>0.1798143547120834</v>
       </c>
       <c r="H36">
-        <v>0.07622126714476589</v>
+        <v>0.1748235301262219</v>
       </c>
     </row>
     <row r="37">
@@ -1569,26 +1570,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes:quality_score_out_of_5</t>
+          <t>specific_factorOthers positive behaviour:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.06428876613991054</v>
+        <v>0.06410632771054611</v>
       </c>
       <c r="D37">
-        <v>0.007267997048051283</v>
+        <v>0.01639456016055026</v>
       </c>
       <c r="E37">
-        <v>2.433959846415319</v>
+        <v>1.450796996114304</v>
       </c>
       <c r="F37">
-        <v>0.03786750280620897</v>
+        <v>-0.0392501795422284</v>
       </c>
       <c r="G37">
-        <v>0.09062020556583329</v>
+        <v>0.1661056024134523</v>
       </c>
       <c r="H37">
-        <v>0.006563403720409362</v>
+        <v>0.09714213257019605</v>
       </c>
     </row>
     <row r="38">
@@ -1599,26 +1600,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious):quality_score_out_of_5</t>
+          <t>specific_factorOthers' abilities:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.04367381064204196</v>
+        <v>0.06801194883554471</v>
       </c>
       <c r="D38">
-        <v>6.840294856954595e-20</v>
+        <v>0.01956728415764249</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2.186034276149339</v>
       </c>
       <c r="F38">
-        <v>0.04367381064204196</v>
+        <v>-0.009567209819479321</v>
       </c>
       <c r="G38">
-        <v>0.04367381064204196</v>
+        <v>0.1447772677686178</v>
       </c>
       <c r="H38">
-        <v>9.964545757134015e-19</v>
+        <v>0.0646553570156079</v>
       </c>
     </row>
     <row r="39">
@@ -1629,26 +1630,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:quality_score_out_of_5</t>
+          <t>specific_factorothers' autonomous motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.05327101077407797</v>
+        <v>0.0501615791016651</v>
       </c>
       <c r="D39">
-        <v>0.01401360552639272</v>
+        <v>0.02757053154597467</v>
       </c>
       <c r="E39">
-        <v>1.724816415803886</v>
+        <v>2.279003876406801</v>
       </c>
       <c r="F39">
-        <v>-0.01719777654781423</v>
+        <v>-0.05548003158934558</v>
       </c>
       <c r="G39">
-        <v>0.1232131857249988</v>
+        <v>0.1546925446704603</v>
       </c>
       <c r="H39">
-        <v>0.07861357680894974</v>
+        <v>0.1944944627306727</v>
       </c>
     </row>
     <row r="40">
@@ -1659,26 +1660,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences:quality_score_out_of_5</t>
+          <t>specific_factorOthers' autonomous motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.0393255947335332</v>
+        <v>0.04579090914321469</v>
       </c>
       <c r="D40">
-        <v>0.01235004409004451</v>
+        <v>0.02504335867033879</v>
       </c>
       <c r="E40">
-        <v>8.783879728208785</v>
+        <v>3.396329206979185</v>
       </c>
       <c r="F40">
-        <v>0.01130253001738715</v>
+        <v>-0.02885657908215553</v>
       </c>
       <c r="G40">
-        <v>0.06728693587355107</v>
+        <v>0.1199304880698942</v>
       </c>
       <c r="H40">
-        <v>0.01142526422223659</v>
+        <v>0.1538785392835481</v>
       </c>
     </row>
     <row r="41">
@@ -1689,26 +1690,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:quality_score_out_of_5</t>
+          <t>specific_factorOthers' controlled motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.07018454414455276</v>
+        <v>0.001673371617200157</v>
       </c>
       <c r="D41">
-        <v>0.01225599798917611</v>
+        <v>0.02174877627096271</v>
       </c>
       <c r="E41">
-        <v>5.952123625465277</v>
+        <v>1.213466633472124</v>
       </c>
       <c r="F41">
-        <v>0.04023048393222656</v>
+        <v>-0.1805623347427532</v>
       </c>
       <c r="G41">
-        <v>0.1000125678894292</v>
+        <v>0.1837980005620546</v>
       </c>
       <c r="H41">
-        <v>0.001254006818748448</v>
+        <v>0.9493646774727629</v>
       </c>
     </row>
     <row r="42">
@@ -1719,26 +1720,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorSocial competence:quality_score_out_of_5</t>
+          <t>specific_factorothers' negative behaviours:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.09943277760230591</v>
+        <v>-0.03542279009792639</v>
       </c>
       <c r="D42">
-        <v>0.007742181276977358</v>
+        <v>0.02528783719334277</v>
       </c>
       <c r="E42">
-        <v>1.453866855664184</v>
+        <v>3.811650629578638</v>
       </c>
       <c r="F42">
-        <v>0.05100852969308993</v>
+        <v>-0.1066306458001991</v>
       </c>
       <c r="G42">
-        <v>0.1473905842650174</v>
+        <v>0.03614656958564851</v>
       </c>
       <c r="H42">
-        <v>0.01788359322849713</v>
+        <v>0.2370433230209134</v>
       </c>
     </row>
     <row r="43">
@@ -1749,26 +1750,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:quality_score_out_of_5</t>
+          <t>specific_factorOthers' negative behaviours:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.08859612714154796</v>
+        <v>-0.07527123740587667</v>
       </c>
       <c r="D43">
-        <v>0.02789171383651192</v>
+        <v>0.007944068904442891</v>
       </c>
       <c r="E43">
-        <v>6.147009010809538</v>
+        <v>3.600303196132593</v>
       </c>
       <c r="F43">
-        <v>0.02097109389862405</v>
+        <v>-0.09815319228887705</v>
       </c>
       <c r="G43">
-        <v>0.1554141700714414</v>
+        <v>-0.05230973620899854</v>
       </c>
       <c r="H43">
-        <v>0.01834317003569833</v>
+        <v>0.001125434336269735</v>
       </c>
     </row>
     <row r="44">
@@ -1779,26 +1780,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:quality_score_out_of_5</t>
+          <t>specific_factorothers' negative emotions:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.0921270832948738</v>
+        <v>-0.04040197378656098</v>
       </c>
       <c r="D44">
-        <v>0.04934971452581238</v>
+        <v>0.01639456016055026</v>
       </c>
       <c r="E44">
-        <v>1.744114651857386</v>
+        <v>1.450796996114303</v>
       </c>
       <c r="F44">
-        <v>-0.1516016920101529</v>
+        <v>-0.1429038286296272</v>
       </c>
       <c r="G44">
-        <v>0.3252951058372892</v>
+        <v>0.06295736005228787</v>
       </c>
       <c r="H44">
-        <v>0.2202980511194225</v>
+        <v>0.1781197516680834</v>
       </c>
     </row>
     <row r="45">
@@ -1809,596 +1810,596 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:quality_score_out_of_5</t>
+          <t>specific_factorOthers' negative emotions:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.09716235266467199</v>
+        <v>-0.04041866427420267</v>
       </c>
       <c r="D45">
-        <v>0.01412134319737775</v>
+        <v>0.01639656533175128</v>
       </c>
       <c r="E45">
-        <v>7.05291656162086</v>
+        <v>2.264674696354822</v>
       </c>
       <c r="F45">
-        <v>0.06404113422306699</v>
+        <v>-0.1032789096474953</v>
       </c>
       <c r="G45">
-        <v>0.1300697516004521</v>
+        <v>0.02276316201908132</v>
       </c>
       <c r="H45">
-        <v>0.0002230736827932275</v>
+        <v>0.1178521422567645</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation:quality_score_out_of_5</t>
+          <t>specific_factorothers' positive behaviours:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.08731538004779417</v>
+        <v>0.0382648100709471</v>
       </c>
       <c r="D46">
-        <v>0.01684798580556057</v>
+        <v>0.01404513495542479</v>
       </c>
       <c r="E46">
-        <v>3.686928339230077</v>
+        <v>3.51486499696865</v>
       </c>
       <c r="F46">
-        <v>0.03913187137984899</v>
+        <v>-0.002929253164665527</v>
       </c>
       <c r="G46">
-        <v>0.1350937773015805</v>
+        <v>0.07932922519694717</v>
       </c>
       <c r="H46">
-        <v>0.008144257027642758</v>
+        <v>0.06065648244827947</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:quality_score_out_of_5</t>
+          <t>specific_factorOthers' positive behaviours:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C47">
-        <v>-0.05169951550408074</v>
+        <v>0.06600848336084758</v>
       </c>
       <c r="D47">
-        <v>0.03211593857551634</v>
+        <v>0.03780459354362502</v>
       </c>
       <c r="E47">
-        <v>1.078116240108604</v>
+        <v>1.076300637376377</v>
       </c>
       <c r="F47">
-        <v>-0.3766668769155628</v>
+        <v>-0.32819094279582</v>
       </c>
       <c r="G47">
-        <v>0.2845981730367165</v>
+        <v>0.4406270632166781</v>
       </c>
       <c r="H47">
-        <v>0.3402996822390356</v>
+        <v>0.3172654208504938</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:quality_score_out_of_5</t>
+          <t>specific_factorothers' positive emotions:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C48">
-        <v>-0.02037722048447542</v>
+        <v>0.04373757473305347</v>
       </c>
       <c r="D48">
-        <v>0.01046073342162003</v>
+        <v>0.01545509300967682</v>
       </c>
       <c r="E48">
-        <v>9.343685101306335</v>
+        <v>1.2138174199828</v>
       </c>
       <c r="F48">
-        <v>-0.04388364178558108</v>
+        <v>-0.08686767315180807</v>
       </c>
       <c r="G48">
-        <v>0.00315175072410597</v>
+        <v>0.1728647540697907</v>
       </c>
       <c r="H48">
-        <v>0.08201650340214194</v>
+        <v>0.1792951661819492</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:quality_score_out_of_5</t>
+          <t>specific_factorOthers' positive emotions:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.1673006870816003</v>
+        <v>0.07775688421362585</v>
       </c>
       <c r="D49">
-        <v>0.03806995872970299</v>
+        <v>0.01498609515370286</v>
       </c>
       <c r="E49">
-        <v>1.078116240108601</v>
+        <v>1.993960916171818</v>
       </c>
       <c r="F49">
-        <v>-0.2349185842310721</v>
+        <v>0.01324592024856793</v>
       </c>
       <c r="G49">
-        <v>0.5206023388011326</v>
+        <v>0.1416232216704373</v>
       </c>
       <c r="H49">
-        <v>0.1274351603589296</v>
+        <v>0.03528474440962704</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:quality_score_out_of_5</t>
+          <t>specific_factorperformance goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.04293679311290504</v>
+        <v>-0.1402089299960347</v>
       </c>
       <c r="D50">
-        <v>0.01205682742149123</v>
+        <v>0.02491171919005128</v>
       </c>
       <c r="E50">
-        <v>9.318636713109587</v>
+        <v>1.761808012946366</v>
       </c>
       <c r="F50">
-        <v>0.01582895012035797</v>
+        <v>-0.2575506249998769</v>
       </c>
       <c r="G50">
-        <v>0.06998156372035257</v>
+        <v>-0.01879192959859658</v>
       </c>
       <c r="H50">
-        <v>0.005758394983212489</v>
+        <v>0.03930526557430021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:quality_score_out_of_5</t>
+          <t>specific_factorPerformance goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C51">
-        <v>-0.04818107304116356</v>
+        <v>0.009346705973477726</v>
       </c>
       <c r="D51">
-        <v>0.01502993624991164</v>
+        <v>0.03061359254267447</v>
       </c>
       <c r="E51">
-        <v>2.716781455215567</v>
+        <v>1.722759465205179</v>
       </c>
       <c r="F51">
-        <v>-0.09867666514599815</v>
+        <v>-0.1439187504059418</v>
       </c>
       <c r="G51">
-        <v>0.002562002460738854</v>
+        <v>0.1621742648410405</v>
       </c>
       <c r="H51">
-        <v>0.05626872994451033</v>
+        <v>0.7929872326322212</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs:quality_score_out_of_5</t>
+          <t>specific_factorpersonal responsibility for others:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.06027083320128038</v>
+        <v>0.07685729130255213</v>
       </c>
       <c r="D52">
-        <v>0.003077696627811012</v>
+        <v>0.01283227175858636</v>
       </c>
       <c r="E52">
-        <v>1.020646191757619</v>
+        <v>1.594517517093711</v>
       </c>
       <c r="F52">
-        <v>0.02305473617167525</v>
+        <v>0.005896286777341529</v>
       </c>
       <c r="G52">
-        <v>0.097320117834246</v>
+        <v>0.1470481229575942</v>
       </c>
       <c r="H52">
-        <v>0.03063301176492338</v>
+        <v>0.0442221814642278</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:quality_score_out_of_5</t>
+          <t>specific_factorPersonal responsibility for others' motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.01841615792477905</v>
+        <v>0.07326959645319447</v>
       </c>
       <c r="D53">
-        <v>0.01306507158435754</v>
+        <v>0.0185018129994116</v>
       </c>
       <c r="E53">
-        <v>2.287442046059017</v>
+        <v>2.195615119112222</v>
       </c>
       <c r="F53">
-        <v>-0.03153063566201511</v>
+        <v>0.0002191462733124938</v>
       </c>
       <c r="G53">
-        <v>0.06827120425608887</v>
+        <v>0.1455422103172028</v>
       </c>
       <c r="H53">
-        <v>0.279216924858618</v>
+        <v>0.04970362781243805</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:quality_score_out_of_5</t>
+          <t>specific_factorPositive attitudes:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.07015528004527731</v>
+        <v>0.06159889746560978</v>
       </c>
       <c r="D54">
-        <v>0.007416047291459604</v>
+        <v>0.006968140777248457</v>
       </c>
       <c r="E54">
-        <v>3.615293537532118</v>
+        <v>2.716443739886342</v>
       </c>
       <c r="F54">
-        <v>0.04874823743432311</v>
+        <v>0.03811394668127914</v>
       </c>
       <c r="G54">
-        <v>0.09149790016157142</v>
+        <v>0.08501583809321291</v>
       </c>
       <c r="H54">
-        <v>0.001111523223544237</v>
+        <v>0.004434901801468679</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:quality_score_out_of_5</t>
+          <t>specific_factorPositive beliefs (religious):quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.08383205298854228</v>
+        <v>0.04367381064204197</v>
       </c>
       <c r="D55">
-        <v>0.03299676574408392</v>
+        <v>5.175373975508412e-18</v>
       </c>
       <c r="E55">
-        <v>1.735526194746464</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>-0.08065713591775256</v>
+        <v>0.04367381064204191</v>
       </c>
       <c r="G55">
-        <v>0.2438761570776428</v>
+        <v>0.04367381064204203</v>
       </c>
       <c r="H55">
-        <v>0.1443380018260187</v>
+        <v>7.539185352046943e-17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorHarmonious passion:quality_score_out_of_5</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.02605445938134955</v>
+        <v>0.06285932098835968</v>
       </c>
       <c r="D56">
-        <v>0.01975668198901431</v>
+        <v>0.01793085530691093</v>
       </c>
       <c r="E56">
-        <v>1.47436696647624</v>
+        <v>1.805520507380918</v>
       </c>
       <c r="F56">
-        <v>-0.09545535447711363</v>
+        <v>-0.02274124001617052</v>
       </c>
       <c r="G56">
-        <v>0.1467992288085704</v>
+        <v>0.1475449153598417</v>
       </c>
       <c r="H56">
-        <v>0.3553218039424132</v>
+        <v>0.08378502914895951</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:quality_score_out_of_5</t>
+          <t>specific_factorprior positive related experiences:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.07346175915386975</v>
+        <v>0.03877211628556721</v>
       </c>
       <c r="D57">
-        <v>0.02399356164837677</v>
+        <v>0.0105837277188414</v>
       </c>
       <c r="E57">
-        <v>7.050869375665415</v>
+        <v>4.021386488262848</v>
       </c>
       <c r="F57">
-        <v>0.01693983159844386</v>
+        <v>0.009467669851216949</v>
       </c>
       <c r="G57">
-        <v>0.1295156668824177</v>
+        <v>0.06801002274197333</v>
       </c>
       <c r="H57">
-        <v>0.01797558799357139</v>
+        <v>0.02128297504673394</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:quality_score_out_of_5</t>
+          <t>specific_factorself-efficacy:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C58">
-        <v>-0.01252505709755675</v>
+        <v>0.05723736488152002</v>
       </c>
       <c r="D58">
-        <v>0.00246844075294876</v>
+        <v>0.01425606127957553</v>
       </c>
       <c r="E58">
-        <v>1.356622718987588</v>
+        <v>2.063779702267289</v>
       </c>
       <c r="F58">
-        <v>-0.02977909861747009</v>
+        <v>-0.002257647148253838</v>
       </c>
       <c r="G58">
-        <v>0.004736446285899242</v>
+        <v>0.1163286028583996</v>
       </c>
       <c r="H58">
-        <v>0.07637599439667757</v>
+        <v>0.05379237679508426</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:quality_score_out_of_5</t>
+          <t>specific_factorSelf-efficacy:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.04117584882788371</v>
+        <v>0.08991902302555554</v>
       </c>
       <c r="D59">
-        <v>0.009834121090746892</v>
+        <v>0.01706334278771078</v>
       </c>
       <c r="E59">
-        <v>2.007493568147938</v>
+        <v>3.477278850407439</v>
       </c>
       <c r="F59">
-        <v>-0.0009626668994231585</v>
+        <v>0.03982077785415764</v>
       </c>
       <c r="G59">
-        <v>0.08316839544746187</v>
+        <v>0.139566321262062</v>
       </c>
       <c r="H59">
-        <v>0.05218846930959729</v>
+        <v>0.009013967208537855</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:quality_score_out_of_5</t>
+          <t>specific_factorSocial competence:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C60">
-        <v>-0.01609118905134127</v>
+        <v>0.101898305881731</v>
       </c>
       <c r="D60">
-        <v>0.02599124133137875</v>
+        <v>0.007392094417066742</v>
       </c>
       <c r="E60">
-        <v>1.735526194746464</v>
+        <v>1.59647985695462</v>
       </c>
       <c r="F60">
-        <v>-0.1449252029408179</v>
+        <v>0.06127644580364595</v>
       </c>
       <c r="G60">
-        <v>0.1132793579754397</v>
+        <v>0.1421831646570433</v>
       </c>
       <c r="H60">
-        <v>0.6071819070334179</v>
+        <v>0.01186637401874092</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help:quality_score_out_of_5</t>
+          <t>specific_factorSocial connection/support:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C61">
-        <v>-0.03483659591031813</v>
+        <v>0.07762543686142284</v>
       </c>
       <c r="D61">
-        <v>0.006173303599556391</v>
+        <v>0.02321104891635253</v>
       </c>
       <c r="E61">
-        <v>1.538043136195942</v>
+        <v>5.824316926390313</v>
       </c>
       <c r="F61">
-        <v>-0.07061589791237927</v>
+        <v>0.02056575741314537</v>
       </c>
       <c r="G61">
-        <v>0.00103223063505084</v>
+        <v>0.1341810772956361</v>
       </c>
       <c r="H61">
-        <v>0.05222009517705013</v>
+        <v>0.01610497149542302</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorLow personal responsibility for others':quality_score_out_of_5</t>
+          <t>specific_factorStyle-related beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C62">
-        <v>-0.009784527200719066</v>
+        <v>0.09260233995121436</v>
       </c>
       <c r="D62">
-        <v>0.006173303570949599</v>
+        <v>0.04908708749191692</v>
       </c>
       <c r="E62">
-        <v>1.538043136195944</v>
+        <v>1.76598928912657</v>
       </c>
       <c r="F62">
-        <v>-0.04563604797586975</v>
+        <v>-0.1464971781252694</v>
       </c>
       <c r="G62">
-        <v>0.02609216636800341</v>
+        <v>0.3214789987859455</v>
       </c>
       <c r="H62">
-        <v>0.2886906077744828</v>
+        <v>0.2155582522854864</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:quality_score_out_of_5</t>
+          <t>specific_factorwell-being:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C63">
-        <v>-0.04275870845774113</v>
+        <v>0.07593915462725373</v>
       </c>
       <c r="D63">
-        <v>0.01946909036773996</v>
+        <v>0.01058372771744842</v>
       </c>
       <c r="E63">
-        <v>2.207259358330846</v>
+        <v>4.02138648826284</v>
       </c>
       <c r="F63">
-        <v>-0.1188845595562716</v>
+        <v>0.04672797162917617</v>
       </c>
       <c r="G63">
-        <v>0.033866895626356</v>
+        <v>0.1050205682744682</v>
       </c>
       <c r="H63">
-        <v>0.1470414258666854</v>
+        <v>0.001943563685859225</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:quality_score_out_of_5</t>
+          <t>specific_factorWell-being:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.07376393617128062</v>
+        <v>0.1023747035777303</v>
       </c>
       <c r="D64">
-        <v>0.01089335938309174</v>
+        <v>0.01616734296717556</v>
       </c>
       <c r="E64">
-        <v>7.503743235173665</v>
+        <v>6.061305849029953</v>
       </c>
       <c r="F64">
-        <v>0.04844793707600159</v>
+        <v>0.06318704813108714</v>
       </c>
       <c r="G64">
-        <v>0.09898522307349734</v>
+        <v>0.1412471565927605</v>
       </c>
       <c r="H64">
-        <v>0.0001879827703491671</v>
+        <v>0.0006843543824175968</v>
       </c>
     </row>
     <row r="65">
@@ -2409,26 +2410,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:quality_score_out_of_5</t>
+          <t>specific_factorAmotivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C65">
-        <v>-0.03275366736349693</v>
+        <v>0.08898506427427204</v>
       </c>
       <c r="D65">
-        <v>0.009830582237963207</v>
+        <v>0.0169828857810996</v>
       </c>
       <c r="E65">
-        <v>8.520011036847977</v>
+        <v>3.716902913308957</v>
       </c>
       <c r="F65">
-        <v>-0.05514017356277341</v>
+        <v>0.04059599879628654</v>
       </c>
       <c r="G65">
-        <v>-0.01033424821737387</v>
+        <v>0.136957701180497</v>
       </c>
       <c r="H65">
-        <v>0.0094549753468543</v>
+        <v>0.007680292217471631</v>
       </c>
     </row>
     <row r="66">
@@ -2439,26 +2440,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:quality_score_out_of_5</t>
+          <t>specific_factorAutonomous causality orientation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.06309889769986796</v>
+        <v>-0.01311108700430013</v>
       </c>
       <c r="D66">
-        <v>0.00982249574404662</v>
+        <v>0.01305360872552823</v>
       </c>
       <c r="E66">
-        <v>2.552230260569997</v>
+        <v>1.099565283677869</v>
       </c>
       <c r="F66">
-        <v>0.02857182671872453</v>
+        <v>-0.1463145996932352</v>
       </c>
       <c r="G66">
-        <v>0.09747558244851928</v>
+        <v>0.1205594016950165</v>
       </c>
       <c r="H66">
-        <v>0.0122195916198513</v>
+        <v>0.486221948456805</v>
       </c>
     </row>
     <row r="67">
@@ -2469,26 +2470,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorObsessive passion:quality_score_out_of_5</t>
+          <t>specific_factorautonomous motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.09079881804124741</v>
+        <v>-0.01065195029422083</v>
       </c>
       <c r="D67">
-        <v>0.01975668198901439</v>
+        <v>0.03691024049750488</v>
       </c>
       <c r="E67">
-        <v>1.47436696647624</v>
+        <v>1.6859594942828</v>
       </c>
       <c r="F67">
-        <v>-0.03074794490200033</v>
+        <v>-0.1987878508751167</v>
       </c>
       <c r="G67">
-        <v>0.2096993202862654</v>
+        <v>0.1782411250325087</v>
       </c>
       <c r="H67">
-        <v>0.07562403936632192</v>
+        <v>0.8044164199978125</v>
       </c>
     </row>
     <row r="68">
@@ -2499,26 +2500,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:quality_score_out_of_5</t>
+          <t>specific_factorAutonomous motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C68">
-        <v>-0.1045224991160132</v>
+        <v>-0.02204813822721889</v>
       </c>
       <c r="D68">
-        <v>0.022195174216015</v>
+        <v>0.01201454602203757</v>
       </c>
       <c r="E68">
-        <v>1.310227157204998</v>
+        <v>7.704232146914523</v>
       </c>
       <c r="F68">
-        <v>-0.2628835664089768</v>
+        <v>-0.04990205545582461</v>
       </c>
       <c r="G68">
-        <v>0.0593225012909635</v>
+        <v>0.005840049439961886</v>
       </c>
       <c r="H68">
-        <v>0.08863195131181682</v>
+        <v>0.1051990036141458</v>
       </c>
     </row>
     <row r="69">
@@ -2529,26 +2530,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:quality_score_out_of_5</t>
+          <t>specific_factorControlled causality orientation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C69">
-        <v>-0.05788622713718577</v>
+        <v>0.2045935631232809</v>
       </c>
       <c r="D69">
-        <v>0.04352552082834486</v>
+        <v>0.06016380225870614</v>
       </c>
       <c r="E69">
-        <v>3.701805761083114</v>
+        <v>1.099565283677872</v>
       </c>
       <c r="F69">
-        <v>-0.180727746489576</v>
+        <v>-0.3895602746394702</v>
       </c>
       <c r="G69">
-        <v>0.06673355147541794</v>
+        <v>0.678498202658543</v>
       </c>
       <c r="H69">
-        <v>0.2591150555159962</v>
+        <v>0.1614351751045137</v>
       </c>
     </row>
     <row r="70">
@@ -2559,26 +2560,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:quality_score_out_of_5</t>
+          <t>specific_factorcontrolled motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.01672306314557791</v>
+        <v>-0.02390325406697982</v>
       </c>
       <c r="D70">
-        <v>0.01995173767404655</v>
+        <v>0.03293506197101973</v>
       </c>
       <c r="E70">
-        <v>1.026071867373721</v>
+        <v>1.134954114954733</v>
       </c>
       <c r="F70">
-        <v>-0.2184801566901812</v>
+        <v>-0.3286542247454134</v>
       </c>
       <c r="G70">
-        <v>0.2500899568865398</v>
+        <v>0.2853559139246529</v>
       </c>
       <c r="H70">
-        <v>0.5529750504916173</v>
+        <v>0.5881713774559287</v>
       </c>
     </row>
     <row r="71">
@@ -2589,26 +2590,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:quality_score_out_of_5</t>
+          <t>specific_factorControlled motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.1250011808487718</v>
+        <v>0.05319304098833667</v>
       </c>
       <c r="D71">
-        <v>0.0336883132627009</v>
+        <v>0.008720668922022229</v>
       </c>
       <c r="E71">
-        <v>1.628885118412391</v>
+        <v>8.286506870805734</v>
       </c>
       <c r="F71">
-        <v>-0.05596950202826759</v>
+        <v>0.03324153177743294</v>
       </c>
       <c r="G71">
-        <v>0.2980197145509757</v>
+        <v>0.07310217190733019</v>
       </c>
       <c r="H71">
-        <v>0.08816210158837746</v>
+        <v>0.0002496192519014697</v>
       </c>
     </row>
     <row r="72">
@@ -2619,26 +2620,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:quality_score_out_of_5</t>
+          <t>specific_factoremotional intelligence:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.06135610985867815</v>
+        <v>-0.09521296730761997</v>
       </c>
       <c r="D72">
-        <v>0.005494417539101406</v>
+        <v>0.01760376752635288</v>
       </c>
       <c r="E72">
-        <v>3.327062530726606</v>
+        <v>1.35664414988495</v>
       </c>
       <c r="F72">
-        <v>0.0448508011124933</v>
+        <v>-0.2151881198455897</v>
       </c>
       <c r="G72">
-        <v>0.07782793046025387</v>
+        <v>0.02759353700770428</v>
       </c>
       <c r="H72">
-        <v>0.000940589117952235</v>
+        <v>0.06996331549331514</v>
       </c>
     </row>
     <row r="73">
@@ -2649,26 +2650,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:quality_score_out_of_5</t>
+          <t>specific_factorEmotional intelligence:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.003803876840958028</v>
+        <v>-0.03403088251290753</v>
       </c>
       <c r="D73">
-        <v>0.009155384033242918</v>
+        <v>0.01547220580445998</v>
       </c>
       <c r="E73">
-        <v>1.04739519713222</v>
+        <v>1.981632932519644</v>
       </c>
       <c r="F73">
-        <v>-0.1004553835542368</v>
+        <v>-0.1008661864635211</v>
       </c>
       <c r="G73">
-        <v>0.1079805053502253</v>
+        <v>0.03311019553541932</v>
       </c>
       <c r="H73">
-        <v>0.7468201676627108</v>
+        <v>0.1599473955177856</v>
       </c>
     </row>
     <row r="74">
@@ -2679,26 +2680,26 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:quality_score_out_of_5</t>
+          <t>specific_factorentity beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C74">
-        <v>-0.03977430587509709</v>
+        <v>0.06088397668019319</v>
       </c>
       <c r="D74">
-        <v>0.007685984459054964</v>
+        <v>0.004225291757035371</v>
       </c>
       <c r="E74">
-        <v>1.097628539731392</v>
+        <v>1.027576482384016</v>
       </c>
       <c r="F74">
-        <v>-0.1185804534774205</v>
+        <v>0.01055939815540282</v>
       </c>
       <c r="G74">
-        <v>0.03952978040789651</v>
+        <v>0.1109009149830611</v>
       </c>
       <c r="H74">
-        <v>0.1054585294242991</v>
+        <v>0.04115456288824336</v>
       </c>
     </row>
     <row r="75">
@@ -2709,26 +2710,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:quality_score_out_of_5</t>
+          <t>specific_factorExternal pressure in terms of constraints:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.05773185969056951</v>
+        <v>0.01684408992768058</v>
       </c>
       <c r="D75">
-        <v>0.007077269621906419</v>
+        <v>0.012406671789766</v>
       </c>
       <c r="E75">
-        <v>1.537364083956038</v>
+        <v>2.305454650089144</v>
       </c>
       <c r="F75">
-        <v>0.01663264154376507</v>
+        <v>-0.03029025108243068</v>
       </c>
       <c r="G75">
-        <v>0.0986363178871664</v>
+        <v>0.06390368520372657</v>
       </c>
       <c r="H75">
-        <v>0.03003043556261555</v>
+        <v>0.2921248049906984</v>
       </c>
     </row>
     <row r="76">
@@ -2739,26 +2740,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others':quality_score_out_of_5</t>
+          <t>specific_factorexternal pressures:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C76">
-        <v>-0.02956053169867462</v>
+        <v>0.07075805246598334</v>
       </c>
       <c r="D76">
-        <v>0.005978417016309153</v>
+        <v>0.0165151065112362</v>
       </c>
       <c r="E76">
-        <v>1.283440304809595</v>
+        <v>1.003910793467754</v>
       </c>
       <c r="F76">
-        <v>-0.07525766405060004</v>
+        <v>-0.1361943229541873</v>
       </c>
       <c r="G76">
-        <v>0.01626050191510811</v>
+        <v>0.2717930699683602</v>
       </c>
       <c r="H76">
-        <v>0.08659411970290479</v>
+        <v>0.1450006781545086</v>
       </c>
     </row>
     <row r="77">
@@ -2769,26 +2770,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:quality_score_out_of_5</t>
+          <t>specific_factorExternal pressures:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C77">
-        <v>-0.03336023093611658</v>
+        <v>0.07034890186841809</v>
       </c>
       <c r="D77">
-        <v>0.03620256771456939</v>
+        <v>0.006811559751201715</v>
       </c>
       <c r="E77">
-        <v>2.026364421391686</v>
+        <v>1.885165213570883</v>
       </c>
       <c r="F77">
-        <v>-0.1850566308768477</v>
+        <v>0.03935808984319071</v>
       </c>
       <c r="G77">
-        <v>0.1198889712059709</v>
+        <v>0.10120450385298</v>
       </c>
       <c r="H77">
-        <v>0.4528439874745256</v>
+        <v>0.01122307962647719</v>
       </c>
     </row>
     <row r="78">
@@ -2799,26 +2800,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences:quality_score_out_of_5</t>
+          <t>specific_factorExtrinsic goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C78">
-        <v>-0.01313695834063985</v>
+        <v>0.1051206555993452</v>
       </c>
       <c r="D78">
-        <v>0.006173303763387396</v>
+        <v>0.06021780959945728</v>
       </c>
       <c r="E78">
-        <v>1.538043136195943</v>
+        <v>1.005553590337007</v>
       </c>
       <c r="F78">
-        <v>-0.0489814164911887</v>
+        <v>-0.5714782348648013</v>
       </c>
       <c r="G78">
-        <v>0.02274129485928897</v>
+        <v>0.6966367551935526</v>
       </c>
       <c r="H78">
-        <v>0.2040440894292133</v>
+        <v>0.3291335277538209</v>
       </c>
     </row>
     <row r="79">
@@ -2829,26 +2830,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:quality_score_out_of_5</t>
+          <t>specific_factorHarmonious passion:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C79">
-        <v>-0.02792299595730486</v>
+        <v>0.02537358124754592</v>
       </c>
       <c r="D79">
-        <v>0.006266549627399959</v>
+        <v>0.01802913488422912</v>
       </c>
       <c r="E79">
-        <v>1.880474439139735</v>
+        <v>1.524496652828775</v>
       </c>
       <c r="F79">
-        <v>-0.05654344411848279</v>
+        <v>-0.08051372332631059</v>
       </c>
       <c r="G79">
-        <v>0.0007433063768326333</v>
+        <v>0.1306945809120019</v>
       </c>
       <c r="H79">
-        <v>0.05236792366821254</v>
+        <v>0.3287420076922561</v>
       </c>
     </row>
     <row r="80">
@@ -2859,26 +2860,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:quality_score_out_of_5</t>
+          <t>specific_factorIll-being:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C80">
-        <v>-0.02811764272914605</v>
+        <v>0.07412114243428787</v>
       </c>
       <c r="D80">
-        <v>0.01823206572431614</v>
+        <v>0.0270440431162641</v>
       </c>
       <c r="E80">
-        <v>1.518591017184258</v>
+        <v>6.168510489137944</v>
       </c>
       <c r="F80">
-        <v>-0.1351284819085352</v>
+        <v>0.008518476259749618</v>
       </c>
       <c r="G80">
-        <v>0.07954157912265902</v>
+        <v>0.1390885048956632</v>
       </c>
       <c r="H80">
-        <v>0.2991781903189052</v>
+        <v>0.03254410198341326</v>
       </c>
     </row>
     <row r="81">
@@ -2889,26 +2890,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:quality_score_out_of_5</t>
+          <t>specific_factorIncremental beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.0998789746776336</v>
+        <v>-0.01116686925083462</v>
       </c>
       <c r="D81">
-        <v>0.03552896970635443</v>
+        <v>0.002611637936482059</v>
       </c>
       <c r="E81">
-        <v>1.029661188738798</v>
+        <v>1.420328337008972</v>
       </c>
       <c r="F81">
-        <v>-0.3109752516813336</v>
+        <v>-0.0281690371084571</v>
       </c>
       <c r="G81">
-        <v>0.4792813594306136</v>
+        <v>0.005841757961710097</v>
       </c>
       <c r="H81">
-        <v>0.211067423882346</v>
+        <v>0.08898547187491118</v>
       </c>
     </row>
     <row r="82">
@@ -2919,26 +2920,1165 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>specific_factorInternal pressures:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>0.04296696690694002</v>
+      </c>
+      <c r="D82">
+        <v>0.007540895859701812</v>
+      </c>
+      <c r="E82">
+        <v>2.011973325959015</v>
+      </c>
+      <c r="F82">
+        <v>0.0107315019040258</v>
+      </c>
+      <c r="G82">
+        <v>0.07511321822323751</v>
+      </c>
+      <c r="H82">
+        <v>0.02901686505107364</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>specific_factorIntrinsic goals:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>0.008262550688441932</v>
+      </c>
+      <c r="D83">
+        <v>0.03865562000764339</v>
+      </c>
+      <c r="E83">
+        <v>1.005553590337007</v>
+      </c>
+      <c r="F83">
+        <v>-0.443467780060599</v>
+      </c>
+      <c r="G83">
+        <v>0.4566455235632549</v>
+      </c>
+      <c r="H83">
+        <v>0.8657897725302413</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>specific_factorInvitation from others to help:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>-0.03324856995314002</v>
+      </c>
+      <c r="D84">
+        <v>0.006698994931882171</v>
+      </c>
+      <c r="E84">
+        <v>1.289700208473804</v>
+      </c>
+      <c r="F84">
+        <v>-0.08399160918761459</v>
+      </c>
+      <c r="G84">
+        <v>0.01766646031720694</v>
+      </c>
+      <c r="H84">
+        <v>0.08549591101487963</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>specific_factorlow personal responsibility for others:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>-0.008194787223165219</v>
+      </c>
+      <c r="D85">
+        <v>0.006698994893258696</v>
+      </c>
+      <c r="E85">
+        <v>1.289700208473804</v>
+      </c>
+      <c r="F85">
+        <v>-0.05905530241341099</v>
+      </c>
+      <c r="G85">
+        <v>0.04270816260967204</v>
+      </c>
+      <c r="H85">
+        <v>0.3991315809985885</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>specific_factorMastery goals:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>-0.0316807073924598</v>
+      </c>
+      <c r="D86">
+        <v>0.01203944466597104</v>
+      </c>
+      <c r="E86">
+        <v>2.172644528201059</v>
+      </c>
+      <c r="F86">
+        <v>-0.07957288570747674</v>
+      </c>
+      <c r="G86">
+        <v>0.01635738975934212</v>
+      </c>
+      <c r="H86">
+        <v>0.1093722794194478</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>specific_factorneed frustration:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>0.04235575643753065</v>
+      </c>
+      <c r="D87">
+        <v>0.0329350619710198</v>
+      </c>
+      <c r="E87">
+        <v>1.134954114954732</v>
+      </c>
+      <c r="F87">
+        <v>-0.2682988782965864</v>
+      </c>
+      <c r="G87">
+        <v>0.345030870244113</v>
+      </c>
+      <c r="H87">
+        <v>0.400907945593639</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>specific_factorNeed frustration:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>0.07931617071838086</v>
+      </c>
+      <c r="D88">
+        <v>0.01309023150941101</v>
+      </c>
+      <c r="E88">
+        <v>6.951815831431134</v>
+      </c>
+      <c r="F88">
+        <v>0.0484481452858285</v>
+      </c>
+      <c r="G88">
+        <v>0.1100328346481846</v>
+      </c>
+      <c r="H88">
+        <v>0.0005185419534282606</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>specific_factorneed satisfaction:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>-0.01683739993174417</v>
+      </c>
+      <c r="D89">
+        <v>0.03293506197101977</v>
+      </c>
+      <c r="E89">
+        <v>1.134954114954732</v>
+      </c>
+      <c r="F89">
+        <v>-0.3223343592649525</v>
+      </c>
+      <c r="G89">
+        <v>0.2918359521258783</v>
+      </c>
+      <c r="H89">
+        <v>0.6907576807512319</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>specific_factorNeed satisfaction:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>-0.04068304141092671</v>
+      </c>
+      <c r="D90">
+        <v>0.009658897319026617</v>
+      </c>
+      <c r="E90">
+        <v>7.733106674184982</v>
+      </c>
+      <c r="F90">
+        <v>-0.06302981810842655</v>
+      </c>
+      <c r="G90">
+        <v>-0.01829549062294055</v>
+      </c>
+      <c r="H90">
+        <v>0.003170799539873247</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>specific_factornegative personality:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>0.1589960606404087</v>
+      </c>
+      <c r="D91">
+        <v>0.01050642725206702</v>
+      </c>
+      <c r="E91">
+        <v>1.867347890155677</v>
+      </c>
+      <c r="F91">
+        <v>0.1114647361545422</v>
+      </c>
+      <c r="G91">
+        <v>0.205801590987358</v>
+      </c>
+      <c r="H91">
+        <v>0.005635936848975594</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>specific_factorNegative personality:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>0.05294196928005247</v>
+      </c>
+      <c r="D92">
+        <v>0.005095902754667302</v>
+      </c>
+      <c r="E92">
+        <v>2.010158905349108</v>
+      </c>
+      <c r="F92">
+        <v>0.03116136895315701</v>
+      </c>
+      <c r="G92">
+        <v>0.07467231388467975</v>
+      </c>
+      <c r="H92">
+        <v>0.008964968387458099</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>specific_factorObsessive passion:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>0.09012306484233121</v>
+      </c>
+      <c r="D93">
+        <v>0.01802913488422914</v>
+      </c>
+      <c r="E93">
+        <v>1.524496652828775</v>
+      </c>
+      <c r="F93">
+        <v>-0.01569785880637605</v>
+      </c>
+      <c r="G93">
+        <v>0.1939474455253942</v>
+      </c>
+      <c r="H93">
+        <v>0.0632784386741472</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>specific_factorOthers positive behaviour:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>0.002404109507604149</v>
+      </c>
+      <c r="D94">
+        <v>0.01760376752635284</v>
+      </c>
+      <c r="E94">
+        <v>1.356644149884951</v>
+      </c>
+      <c r="F94">
+        <v>-0.1201159654765161</v>
+      </c>
+      <c r="G94">
+        <v>0.1248520495825799</v>
+      </c>
+      <c r="H94">
+        <v>0.9088111162325967</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' abilities:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>-0.1065973205284703</v>
+      </c>
+      <c r="D95">
+        <v>0.02596889148871326</v>
+      </c>
+      <c r="E95">
+        <v>1.049951462454795</v>
+      </c>
+      <c r="F95">
+        <v>-0.3817360890722353</v>
+      </c>
+      <c r="G95">
+        <v>0.1858957346785245</v>
+      </c>
+      <c r="H95">
+        <v>0.1424087939332498</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>specific_factorothers' autonomous motivation:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>-0.1025100710303944</v>
+      </c>
+      <c r="D96">
+        <v>0.02971123403456847</v>
+      </c>
+      <c r="E96">
+        <v>1.513289093102842</v>
+      </c>
+      <c r="F96">
+        <v>-0.2723976732808378</v>
+      </c>
+      <c r="G96">
+        <v>0.07357580255651554</v>
+      </c>
+      <c r="H96">
+        <v>0.1085990940626324</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' autonomous motivation:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>0.03210023615030434</v>
+      </c>
+      <c r="D97">
+        <v>0.0280590486978497</v>
+      </c>
+      <c r="E97">
+        <v>2.707167605157832</v>
+      </c>
+      <c r="F97">
+        <v>-0.0628233451119015</v>
+      </c>
+      <c r="G97">
+        <v>0.1264482544238259</v>
+      </c>
+      <c r="H97">
+        <v>0.3434825929710643</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' controlled motivation:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>0.03010805774558752</v>
+      </c>
+      <c r="D98">
+        <v>0.02139154733418032</v>
+      </c>
+      <c r="E98">
+        <v>1.042682217219718</v>
+      </c>
+      <c r="F98">
+        <v>-0.2134232330333804</v>
+      </c>
+      <c r="G98">
+        <v>0.270116548609699</v>
+      </c>
+      <c r="H98">
+        <v>0.3861974531152608</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative behaviours:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>0.08038092658586904</v>
+      </c>
+      <c r="D99">
+        <v>0.004366903141405708</v>
+      </c>
+      <c r="E99">
+        <v>1.002044635296873</v>
+      </c>
+      <c r="F99">
+        <v>0.02532936650994784</v>
+      </c>
+      <c r="G99">
+        <v>0.1349464310844455</v>
+      </c>
+      <c r="H99">
+        <v>0.03428622872537358</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative behaviours:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>0.161626551304909</v>
+      </c>
+      <c r="D100">
+        <v>0.01618864460140042</v>
+      </c>
+      <c r="E100">
+        <v>1.263521905616497</v>
+      </c>
+      <c r="F100">
+        <v>0.0355242426773857</v>
+      </c>
+      <c r="G100">
+        <v>0.2826627235798528</v>
+      </c>
+      <c r="H100">
+        <v>0.03677465969168257</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative emotions:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>0.05499018780542573</v>
+      </c>
+      <c r="D101">
+        <v>0.01346548343685497</v>
+      </c>
+      <c r="E101">
+        <v>1.116255704802762</v>
+      </c>
+      <c r="F101">
+        <v>-0.07902234710968353</v>
+      </c>
+      <c r="G101">
+        <v>0.1870504165467779</v>
+      </c>
+      <c r="H101">
+        <v>0.1325153493020255</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative emotions:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>0.06386427168494913</v>
+      </c>
+      <c r="D102">
+        <v>0.006978042831324416</v>
+      </c>
+      <c r="E102">
+        <v>1.175289111666452</v>
+      </c>
+      <c r="F102">
+        <v>0.001167359254441096</v>
+      </c>
+      <c r="G102">
+        <v>0.1260610608773866</v>
+      </c>
+      <c r="H102">
+        <v>0.04893926358350457</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' positive emotions:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>-0.03787405489049903</v>
+      </c>
+      <c r="D103">
+        <v>0.007916192304247574</v>
+      </c>
+      <c r="E103">
+        <v>1.102718487450875</v>
+      </c>
+      <c r="F103">
+        <v>-0.1182703460135932</v>
+      </c>
+      <c r="G103">
+        <v>0.04301555081211653</v>
+      </c>
+      <c r="H103">
+        <v>0.1138834872952296</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>specific_factorPerformance goals:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>0.06005200623493492</v>
+      </c>
+      <c r="D104">
+        <v>0.006165634324962411</v>
+      </c>
+      <c r="E104">
+        <v>1.522944723297994</v>
+      </c>
+      <c r="F104">
+        <v>0.02379602443867279</v>
+      </c>
+      <c r="G104">
+        <v>0.09615022980315195</v>
+      </c>
+      <c r="H104">
+        <v>0.0235552172051629</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>specific_factorpersonal responsibility for others:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>-0.02969494118709925</v>
+      </c>
+      <c r="D105">
+        <v>0.006810928965069784</v>
+      </c>
+      <c r="E105">
+        <v>1.354272498176964</v>
+      </c>
+      <c r="F105">
+        <v>-0.07731125690116539</v>
+      </c>
+      <c r="G105">
+        <v>0.01805653140410887</v>
+      </c>
+      <c r="H105">
+        <v>0.09325788205745562</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>specific_factorPersonal responsibility for others' motivation:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>-0.03389101331630423</v>
+      </c>
+      <c r="D106">
+        <v>0.03635580216814459</v>
+      </c>
+      <c r="E106">
+        <v>2.010674671478829</v>
+      </c>
+      <c r="F106">
+        <v>-0.1872997267556349</v>
+      </c>
+      <c r="G106">
+        <v>0.1211315330099181</v>
+      </c>
+      <c r="H106">
+        <v>0.4490463215129324</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>specific_factorprior positive related experiences:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>-0.01154733211796572</v>
+      </c>
+      <c r="D107">
+        <v>0.006698995153078484</v>
+      </c>
+      <c r="E107">
+        <v>1.289700208473803</v>
+      </c>
+      <c r="F107">
+        <v>-0.06239581191220097</v>
+      </c>
+      <c r="G107">
+        <v>0.03936093868559492</v>
+      </c>
+      <c r="H107">
+        <v>0.2902223935201246</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>specific_factorself-efficacy:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>-0.02824405846183232</v>
+      </c>
+      <c r="D108">
+        <v>0.006698994918857643</v>
+      </c>
+      <c r="E108">
+        <v>1.289700208473803</v>
+      </c>
+      <c r="F108">
+        <v>-0.07901563798422154</v>
+      </c>
+      <c r="G108">
+        <v>0.02267366922757577</v>
+      </c>
+      <c r="H108">
+        <v>0.1046264012621152</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>specific_factorSelf-efficacy:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>-0.02524713357367821</v>
+      </c>
+      <c r="D109">
+        <v>0.01528548606635256</v>
+      </c>
+      <c r="E109">
+        <v>1.025233716659757</v>
+      </c>
+      <c r="F109">
+        <v>-0.2055619512830093</v>
+      </c>
+      <c r="G109">
+        <v>0.1567255778001018</v>
+      </c>
+      <c r="H109">
+        <v>0.342011716753355</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>specific_factorSocial connection/support:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>-0.03022108619493227</v>
+      </c>
+      <c r="D110">
+        <v>0.01671292108332845</v>
+      </c>
+      <c r="E110">
+        <v>1.534875736060444</v>
+      </c>
+      <c r="F110">
+        <v>-0.1269590970350908</v>
+      </c>
+      <c r="G110">
+        <v>0.06708640707797672</v>
+      </c>
+      <c r="H110">
+        <v>0.248790060591589</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>specific_factorstyle-related beliefs:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>0.06047887232744576</v>
+      </c>
+      <c r="D111">
+        <v>0.002650250801041332</v>
+      </c>
+      <c r="E111">
+        <v>1.316311474721074</v>
+      </c>
+      <c r="F111">
+        <v>0.04106232085349342</v>
+      </c>
+      <c r="G111">
+        <v>0.07984976265722049</v>
+      </c>
+      <c r="H111">
+        <v>0.01133891942275526</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>specific_factorStyle-related beliefs:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>0.1336488573988944</v>
+      </c>
+      <c r="D112">
+        <v>5.235657673693346e-18</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0.1336488573988943</v>
+      </c>
+      <c r="G112">
+        <v>0.1336488573988944</v>
+      </c>
+      <c r="H112">
+        <v>2.479020325154715e-17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>specific_factorwell-being:quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>-0.04163969101897635</v>
+      </c>
+      <c r="D113">
+        <v>0.00669899494476182</v>
+      </c>
+      <c r="E113">
+        <v>1.289700208473803</v>
+      </c>
+      <c r="F113">
+        <v>-0.09232920129297548</v>
+      </c>
+      <c r="G113">
+        <v>0.009265081443336711</v>
+      </c>
+      <c r="H113">
+        <v>0.06446790676838983</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>specific_factorWell-being:quality_score_out_of_5</t>
         </is>
       </c>
-      <c r="C82">
-        <v>-0.04910799935460895</v>
-      </c>
-      <c r="D82">
-        <v>0.01278578451071469</v>
-      </c>
-      <c r="E82">
-        <v>4.340473357293382</v>
-      </c>
-      <c r="F82">
-        <v>-0.08338084171123243</v>
-      </c>
-      <c r="G82">
-        <v>-0.01471911932789499</v>
-      </c>
-      <c r="H82">
-        <v>0.01578721171617556</v>
+      <c r="C114">
+        <v>-0.04968348216084929</v>
+      </c>
+      <c r="D114">
+        <v>0.01444835482859835</v>
+      </c>
+      <c r="E114">
+        <v>3.443980015734353</v>
+      </c>
+      <c r="F114">
+        <v>-0.09226427648526414</v>
+      </c>
+      <c r="G114">
+        <v>-0.006921308036967073</v>
+      </c>
+      <c r="H114">
+        <v>0.03324553164378082</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>quality_score_out_of_5</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>393</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>149</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>195</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/output/12-specific-quality-continuous.xlsx
+++ b/output/12-specific-quality-continuous.xlsx
@@ -408,25 +408,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D2">
-        <v>0.01050102993335134</v>
+        <v>0.009673618193135317</v>
       </c>
       <c r="E2">
-        <v>0.02417734286425065</v>
+        <v>0.0254046440343649</v>
       </c>
       <c r="F2">
-        <v>94.68175202369162</v>
+        <v>94.74943612130193</v>
       </c>
       <c r="G2">
-        <v>66.01097447752926</v>
+        <v>68.62015231847495</v>
       </c>
       <c r="H2">
-        <v>28.67077754616236</v>
+        <v>26.12928380282698</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D3">
-        <v>4.738516887814818e-09</v>
+        <v>1.894199891949774e-09</v>
       </c>
       <c r="E3">
-        <v>0.02009128142684382</v>
+        <v>0.02306602491647611</v>
       </c>
       <c r="F3">
-        <v>86.02162510612868</v>
+        <v>88.15796243268503</v>
       </c>
       <c r="G3">
-        <v>86.02160481798387</v>
+        <v>88.15795519308523</v>
       </c>
       <c r="H3">
-        <v>2.028814481700196e-05</v>
+        <v>7.239599792592549e-06</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,22 +524,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.08038683845655963</v>
+        <v>-0.0815243610065168</v>
       </c>
       <c r="D2">
-        <v>0.01672740259756128</v>
+        <v>0.01617366743689422</v>
       </c>
       <c r="E2">
-        <v>3.09774053754714</v>
+        <v>3.035522491641479</v>
       </c>
       <c r="F2">
-        <v>-0.1320808077405351</v>
+        <v>-0.1320625579126693</v>
       </c>
       <c r="G2">
-        <v>-0.02825679694101814</v>
+        <v>-0.03056342679473891</v>
       </c>
       <c r="H2">
-        <v>0.01583629625007904</v>
+        <v>0.01454370823698874</v>
       </c>
     </row>
     <row r="3">
@@ -554,22 +554,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.06759845388669267</v>
+        <v>0.07329809346099136</v>
       </c>
       <c r="D3">
-        <v>0.03692084892385764</v>
+        <v>0.03994300176390006</v>
       </c>
       <c r="E3">
-        <v>2.364220688383331</v>
+        <v>2.341541148313324</v>
       </c>
       <c r="F3">
-        <v>-0.06974834572080198</v>
+        <v>-0.07635990887363207</v>
       </c>
       <c r="G3">
-        <v>0.2024300901985739</v>
+        <v>0.2197262135418615</v>
       </c>
       <c r="H3">
-        <v>0.1882545363450573</v>
+        <v>0.1885774150384675</v>
       </c>
     </row>
     <row r="4">
@@ -580,26 +580,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation:quality_score_out_of_5</t>
+          <t>specific_factorAutonomous motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.06409146101902445</v>
+        <v>0.08276776476778194</v>
       </c>
       <c r="D4">
-        <v>0.02998690607791928</v>
+        <v>0.01270701610380601</v>
       </c>
       <c r="E4">
-        <v>2.526484402681548</v>
+        <v>20.93076229764497</v>
       </c>
       <c r="F4">
-        <v>-0.04218866321766444</v>
+        <v>0.05646640681610021</v>
       </c>
       <c r="G4">
-        <v>0.1689373471801794</v>
+        <v>0.1089543250101053</v>
       </c>
       <c r="H4">
-        <v>0.138578277663098</v>
+        <v>1.846383580135123e-06</v>
       </c>
     </row>
     <row r="5">
@@ -610,26 +610,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:quality_score_out_of_5</t>
+          <t>specific_factorCoherence of mind:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.08693503224392006</v>
+        <v>0.02209480731690314</v>
       </c>
       <c r="D5">
-        <v>0.01466544406032285</v>
+        <v>5.777936488193538e-17</v>
       </c>
       <c r="E5">
-        <v>16.83048426842539</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.05613083983527371</v>
+        <v>0.0220948073169024</v>
       </c>
       <c r="G5">
-        <v>0.117573875588087</v>
+        <v>0.02209480731690387</v>
       </c>
       <c r="H5">
-        <v>1.673174614272105e-05</v>
+        <v>1.664531360306624e-15</v>
       </c>
     </row>
     <row r="6">
@@ -640,26 +640,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorCoherence of mind:quality_score_out_of_5</t>
+          <t>specific_factorControlled causality orientation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.02209480731690315</v>
+        <v>-0.0953111845709407</v>
       </c>
       <c r="D6">
-        <v>7.893400942652503e-18</v>
+        <v>0.03686745626087731</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>1.180827437776669</v>
       </c>
       <c r="F6">
-        <v>0.02209480731690305</v>
+        <v>-0.4005743067382177</v>
       </c>
       <c r="G6">
-        <v>0.02209480731690325</v>
+        <v>0.2289963929624844</v>
       </c>
       <c r="H6">
-        <v>2.273962933889357e-16</v>
+        <v>0.2024008432560426</v>
       </c>
     </row>
     <row r="7">
@@ -670,26 +670,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:quality_score_out_of_5</t>
+          <t>specific_factorControlled motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.1091164222136916</v>
+        <v>-0.01799937967599444</v>
       </c>
       <c r="D7">
-        <v>0.02729958341583065</v>
+        <v>0.01180030009293204</v>
       </c>
       <c r="E7">
-        <v>1.207656193224156</v>
+        <v>13.2703548290872</v>
       </c>
       <c r="F7">
-        <v>-0.3300433457826743</v>
+        <v>-0.04341432108986043</v>
       </c>
       <c r="G7">
-        <v>0.1231435029776174</v>
+        <v>0.007438842872032937</v>
       </c>
       <c r="H7">
-        <v>0.1217147281575946</v>
+        <v>0.150609560884574</v>
       </c>
     </row>
     <row r="8">
@@ -700,26 +700,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation:quality_score_out_of_5</t>
+          <t>specific_factorEmotional intelligence:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C8">
-        <v>-0.01322591942522011</v>
+        <v>0.06638965445035863</v>
       </c>
       <c r="D8">
-        <v>0.03243343179691778</v>
+        <v>0.01279042514568867</v>
       </c>
       <c r="E8">
-        <v>1.246954829531849</v>
+        <v>4.052808323711747</v>
       </c>
       <c r="F8">
-        <v>-0.2680238895403773</v>
+        <v>0.03114720714193621</v>
       </c>
       <c r="G8">
-        <v>0.2433013146332001</v>
+        <v>0.1014672306869007</v>
       </c>
       <c r="H8">
-        <v>0.7423562887958068</v>
+        <v>0.006293623792767349</v>
       </c>
     </row>
     <row r="9">
@@ -730,26 +730,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:quality_score_out_of_5</t>
+          <t>specific_factorEntity beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.01761615315121667</v>
+        <v>-0.05372777060772631</v>
       </c>
       <c r="D9">
-        <v>0.01293069483697845</v>
+        <v>0.01735494842324395</v>
       </c>
       <c r="E9">
-        <v>11.11297563027819</v>
+        <v>1.735111937838685</v>
       </c>
       <c r="F9">
-        <v>-0.04601047413748822</v>
+        <v>-0.1395966142181359</v>
       </c>
       <c r="G9">
-        <v>0.01080661072118652</v>
+        <v>0.03294310760708115</v>
       </c>
       <c r="H9">
-        <v>0.2000164847216461</v>
+        <v>0.1075330152891759</v>
       </c>
     </row>
     <row r="10">
@@ -760,26 +760,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factoremotional intelligence:quality_score_out_of_5</t>
+          <t>specific_factorExternal pressure in terms of constraints:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.03945663819770675</v>
+        <v>0.00243696269114149</v>
       </c>
       <c r="D10">
-        <v>0.01639456016055033</v>
+        <v>0.01435650533162405</v>
       </c>
       <c r="E10">
-        <v>1.450796996114304</v>
+        <v>4.108071705562793</v>
       </c>
       <c r="F10">
-        <v>-0.06390039587383127</v>
+        <v>-0.03699602612549929</v>
       </c>
       <c r="G10">
-        <v>0.1419761941331105</v>
+        <v>0.04186237415712816</v>
       </c>
       <c r="H10">
-        <v>0.1834487432629405</v>
+        <v>0.8732421003602869</v>
       </c>
     </row>
     <row r="11">
@@ -790,26 +790,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:quality_score_out_of_5</t>
+          <t>specific_factorExternal pressures:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.07849192988793367</v>
+        <v>0.004892681072541091</v>
       </c>
       <c r="D11">
-        <v>0.01083125330775983</v>
+        <v>0.01192199972046259</v>
       </c>
       <c r="E11">
-        <v>2.95121416178325</v>
+        <v>8.20618223694319</v>
       </c>
       <c r="F11">
-        <v>0.04383113226987891</v>
+        <v>-0.02247590365124587</v>
       </c>
       <c r="G11">
-        <v>0.1129639958178624</v>
+        <v>0.03225393796130915</v>
       </c>
       <c r="H11">
-        <v>0.005692551799216691</v>
+        <v>0.6920231899473881</v>
       </c>
     </row>
     <row r="12">
@@ -820,26 +820,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorentity beliefs:quality_score_out_of_5</t>
+          <t>specific_factorExtrinsic goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.05049443503949706</v>
+        <v>-0.01506625156029588</v>
       </c>
       <c r="D12">
-        <v>0.01918815552543988</v>
+        <v>0.0400010365439347</v>
       </c>
       <c r="E12">
-        <v>1.773054735817533</v>
+        <v>1.860866708667462</v>
       </c>
       <c r="F12">
-        <v>-0.1431096355807628</v>
+        <v>-0.1974880583487534</v>
       </c>
       <c r="G12">
-        <v>0.04299744002136441</v>
+        <v>0.1683640686439201</v>
       </c>
       <c r="H12">
-        <v>0.1344537320806385</v>
+        <v>0.7449915556650313</v>
       </c>
     </row>
     <row r="13">
@@ -850,26 +850,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:quality_score_out_of_5</t>
+          <t>specific_factorIll-being:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.001618037265605962</v>
+        <v>-0.06300383723864061</v>
       </c>
       <c r="D13">
-        <v>0.01418234821761301</v>
+        <v>0.01750160117554773</v>
       </c>
       <c r="E13">
-        <v>4.208990174635542</v>
+        <v>8.95791267045273</v>
       </c>
       <c r="F13">
-        <v>-0.03698237407686954</v>
+        <v>-0.1023475193935505</v>
       </c>
       <c r="G13">
-        <v>0.04021362747331313</v>
+        <v>-0.02346334769605465</v>
       </c>
       <c r="H13">
-        <v>0.9144046917807476</v>
+        <v>0.00575063157585535</v>
       </c>
     </row>
     <row r="14">
@@ -880,26 +880,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorexternal pressures:quality_score_out_of_5</t>
+          <t>specific_factorIncremental beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.001815196716550594</v>
+        <v>0.03192132164864768</v>
       </c>
       <c r="D14">
-        <v>0.02017584335001075</v>
+        <v>0.004156858034060233</v>
       </c>
       <c r="E14">
-        <v>3.531234933462535</v>
+        <v>1.086973428705514</v>
       </c>
       <c r="F14">
-        <v>-0.05719758053109135</v>
+        <v>-0.01187415001830502</v>
       </c>
       <c r="G14">
-        <v>0.06081533375684401</v>
+        <v>0.07559455757767118</v>
       </c>
       <c r="H14">
-        <v>0.9331789256763086</v>
+        <v>0.07028549537509732</v>
       </c>
     </row>
     <row r="15">
@@ -910,26 +910,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:quality_score_out_of_5</t>
+          <t>specific_factorInternal pressures:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.005825875148950065</v>
+        <v>-0.02081650813285849</v>
       </c>
       <c r="D15">
-        <v>0.02204580829109025</v>
+        <v>0.01742974430494226</v>
       </c>
       <c r="E15">
-        <v>2.912248754853433</v>
+        <v>1.923028481849201</v>
       </c>
       <c r="F15">
-        <v>-0.06545120688147212</v>
+        <v>-0.0984450358919885</v>
       </c>
       <c r="G15">
-        <v>0.07704380848149581</v>
+        <v>0.05706383097090309</v>
       </c>
       <c r="H15">
-        <v>0.8091683324602408</v>
+        <v>0.3588735383522081</v>
       </c>
     </row>
     <row r="16">
@@ -940,26 +940,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:quality_score_out_of_5</t>
+          <t>specific_factorIntrinsic goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.01302730987081008</v>
+        <v>0.09025696279680268</v>
       </c>
       <c r="D16">
-        <v>0.03262396179290786</v>
+        <v>0.02466605299667198</v>
       </c>
       <c r="E16">
-        <v>1.010419919374926</v>
+        <v>1.860866708667464</v>
       </c>
       <c r="F16">
-        <v>-0.3726803044013648</v>
+        <v>-0.02360068248915385</v>
       </c>
       <c r="G16">
-        <v>0.394896689701447</v>
+        <v>0.2018031812470925</v>
       </c>
       <c r="H16">
-        <v>0.7575855902921956</v>
+        <v>0.07453174208733503</v>
       </c>
     </row>
     <row r="17">
@@ -970,26 +970,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorill-being:quality_score_out_of_5</t>
+          <t>specific_factorInvitation from others' to help:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C17">
-        <v>-0.03130389076164898</v>
+        <v>0.05046243237638642</v>
       </c>
       <c r="D17">
-        <v>0.01267602444907415</v>
+        <v>0.01235004414036841</v>
       </c>
       <c r="E17">
-        <v>1.180801502265945</v>
+        <v>8.783879728208367</v>
       </c>
       <c r="F17">
-        <v>-0.1433513669258008</v>
+        <v>0.02245867956263555</v>
       </c>
       <c r="G17">
-        <v>0.08153593821042554</v>
+        <v>0.07838706102498186</v>
       </c>
       <c r="H17">
-        <v>0.2130021832897485</v>
+        <v>0.002862008746728059</v>
       </c>
     </row>
     <row r="18">
@@ -1000,26 +1000,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:quality_score_out_of_5</t>
+          <t>specific_factorLow Personal responsibility for others' motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C18">
-        <v>-0.06714524287240692</v>
+        <v>0.03649326558501131</v>
       </c>
       <c r="D18">
-        <v>0.02016984824793189</v>
+        <v>0.01235004413615642</v>
       </c>
       <c r="E18">
-        <v>6.830770620411004</v>
+        <v>8.783879728209067</v>
       </c>
       <c r="F18">
-        <v>-0.1146744483761533</v>
+        <v>0.008466401612059554</v>
       </c>
       <c r="G18">
-        <v>-0.01930933135596126</v>
+        <v>0.06446283916052062</v>
       </c>
       <c r="H18">
-        <v>0.01297947007555689</v>
+        <v>0.01648117744083595</v>
       </c>
     </row>
     <row r="19">
@@ -1030,26 +1030,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:quality_score_out_of_5</t>
+          <t>specific_factorMastery goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.03421111168595194</v>
+        <v>0.07523597147015545</v>
       </c>
       <c r="D19">
-        <v>0.006644718411934344</v>
+        <v>0.01390025078538051</v>
       </c>
       <c r="E19">
-        <v>2.868339171649065</v>
+        <v>2.692914818765693</v>
       </c>
       <c r="F19">
-        <v>0.01251748844579346</v>
+        <v>0.02813882839753669</v>
       </c>
       <c r="G19">
-        <v>0.0558725446238746</v>
+        <v>0.1219998219649447</v>
       </c>
       <c r="H19">
-        <v>0.01582888153783345</v>
+        <v>0.01617946127629661</v>
       </c>
     </row>
     <row r="20">
@@ -1060,26 +1060,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:quality_score_out_of_5</t>
+          <t>specific_factorNeed frustration:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.01444677041818615</v>
+        <v>-0.04473302765388353</v>
       </c>
       <c r="D20">
-        <v>0.02076159435187375</v>
+        <v>0.01420808410176617</v>
       </c>
       <c r="E20">
-        <v>1.982369647070977</v>
+        <v>9.33750197466761</v>
       </c>
       <c r="F20">
-        <v>-0.1041641637827484</v>
+        <v>-0.07657738592123924</v>
       </c>
       <c r="G20">
-        <v>0.07550384639372573</v>
+        <v>-0.01279750299636489</v>
       </c>
       <c r="H20">
-        <v>0.5590458034826132</v>
+        <v>0.01121137139736869</v>
       </c>
     </row>
     <row r="21">
@@ -1090,26 +1090,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals:quality_score_out_of_5</t>
+          <t>specific_factorNeed satisfaction:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.1162573516665959</v>
+        <v>0.07613663729713384</v>
       </c>
       <c r="D21">
-        <v>0.008356781942183802</v>
+        <v>0.01079173327445822</v>
       </c>
       <c r="E21">
-        <v>1.010419919374927</v>
+        <v>17.85287030255391</v>
       </c>
       <c r="F21">
-        <v>0.01315465269071043</v>
+        <v>0.053547009685385</v>
       </c>
       <c r="G21">
-        <v>0.2169139596945611</v>
+        <v>0.09864837760567408</v>
       </c>
       <c r="H21">
-        <v>0.04433326654204573</v>
+        <v>1.427558254312199e-06</v>
       </c>
     </row>
     <row r="22">
@@ -1120,26 +1120,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others to help:quality_score_out_of_5</t>
+          <t>specific_factorNegative beliefs (religious):quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.04990950477122066</v>
+        <v>-0.01441322549287863</v>
       </c>
       <c r="D22">
-        <v>0.0105837277181122</v>
+        <v>2.646409627996746e-18</v>
       </c>
       <c r="E22">
-        <v>4.021386488262815</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.02062447308674464</v>
+        <v>-0.01441322549287867</v>
       </c>
       <c r="G22">
-        <v>0.07910896735415154</v>
+        <v>-0.0144132254928786</v>
       </c>
       <c r="H22">
-        <v>0.00905554480097511</v>
+        <v>1.168815422300665e-16</v>
       </c>
     </row>
     <row r="23">
@@ -1150,26 +1150,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorlow personal responsibility for others:quality_score_out_of_5</t>
+          <t>specific_factorNegative beliefs about knowledge and learning:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.03593966891617238</v>
+        <v>0.000811379913378882</v>
       </c>
       <c r="D23">
-        <v>0.01058372771817323</v>
+        <v>0.0528652562609532</v>
       </c>
       <c r="E23">
-        <v>4.021386488262832</v>
+        <v>1.421145944712003</v>
       </c>
       <c r="F23">
-        <v>0.006631448164043856</v>
+        <v>-0.3303252199972456</v>
       </c>
       <c r="G23">
-        <v>0.06518619762258941</v>
+        <v>0.3317701373070829</v>
       </c>
       <c r="H23">
-        <v>0.02712167752657865</v>
+        <v>0.9896240650306244</v>
       </c>
     </row>
     <row r="24">
@@ -1180,26 +1180,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factormastery goals:quality_score_out_of_5</t>
+          <t>specific_factorNegative beliefs about motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.03707843442446104</v>
+        <v>-0.09727455364259761</v>
       </c>
       <c r="D24">
-        <v>0.02491171919005118</v>
+        <v>0.1231761878611</v>
       </c>
       <c r="E24">
-        <v>1.761808012946369</v>
+        <v>1.017861739652412</v>
       </c>
       <c r="F24">
-        <v>-0.08504319198010488</v>
+        <v>-0.9215557946807497</v>
       </c>
       <c r="G24">
-        <v>0.158102538603546</v>
+        <v>0.8862314812443782</v>
       </c>
       <c r="H24">
-        <v>0.2905840276320887</v>
+        <v>0.5715855293153651</v>
       </c>
     </row>
     <row r="25">
@@ -1210,26 +1210,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals:quality_score_out_of_5</t>
+          <t>specific_factorNegative life events:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.07236127875975673</v>
+        <v>0.02953482427451321</v>
       </c>
       <c r="D25">
-        <v>0.02649901385301226</v>
+        <v>4.738755168728501e-17</v>
       </c>
       <c r="E25">
-        <v>2.256139320596406</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>-0.02997040183141799</v>
+        <v>0.0295348242745126</v>
       </c>
       <c r="G25">
-        <v>0.1731918287476226</v>
+        <v>0.02953482427451381</v>
       </c>
       <c r="H25">
-        <v>0.09802018249363208</v>
+        <v>1.02113620795072e-15</v>
       </c>
     </row>
     <row r="26">
@@ -1240,26 +1240,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorneed frustration:quality_score_out_of_5</t>
+          <t>specific_factorNegative personality:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C26">
-        <v>-0.03184731202592235</v>
+        <v>-0.0687005722783558</v>
       </c>
       <c r="D26">
-        <v>0.02222360175548553</v>
+        <v>0.06798549837841673</v>
       </c>
       <c r="E26">
-        <v>1.751872895168631</v>
+        <v>1.630493926645765</v>
       </c>
       <c r="F26">
-        <v>-0.140764093258119</v>
+        <v>-0.4095009290658818</v>
       </c>
       <c r="G26">
-        <v>0.07783112639008531</v>
+        <v>0.2889255262248503</v>
       </c>
       <c r="H26">
-        <v>0.304227762842163</v>
+        <v>0.4379149343873073</v>
       </c>
     </row>
     <row r="27">
@@ -1270,26 +1270,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration:quality_score_out_of_5</t>
+          <t>specific_factorOthers' abilities:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C27">
-        <v>-0.04965894854909369</v>
+        <v>0.06353546829311142</v>
       </c>
       <c r="D27">
-        <v>0.01818781287497085</v>
+        <v>0.0158254723744405</v>
       </c>
       <c r="E27">
-        <v>8.437607329215883</v>
+        <v>3.690230890244981</v>
       </c>
       <c r="F27">
-        <v>-0.09101281875130696</v>
+        <v>0.01818706754848452</v>
       </c>
       <c r="G27">
-        <v>-0.008134106753154959</v>
+        <v>0.1086230007046619</v>
       </c>
       <c r="H27">
-        <v>0.02451035800622953</v>
+        <v>0.0185918386162463</v>
       </c>
     </row>
     <row r="28">
@@ -1300,26 +1300,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorneed satisfaction:quality_score_out_of_5</t>
+          <t>specific_factorOthers' autonomous motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.07989471230973494</v>
+        <v>0.04935541729547906</v>
       </c>
       <c r="D28">
-        <v>0.02222360175548561</v>
+        <v>0.01653388288283629</v>
       </c>
       <c r="E28">
-        <v>1.751872895168625</v>
+        <v>6.735623215651685</v>
       </c>
       <c r="F28">
-        <v>-0.02977278272746995</v>
+        <v>0.009985555958995331</v>
       </c>
       <c r="G28">
-        <v>0.187661600205221</v>
+        <v>0.08857249979338667</v>
       </c>
       <c r="H28">
-        <v>0.08383578952518209</v>
+        <v>0.02123947953340174</v>
       </c>
     </row>
     <row r="29">
@@ -1330,26 +1330,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction:quality_score_out_of_5</t>
+          <t>specific_factorOthers' controlled motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.07546040659670285</v>
+        <v>0.0008356601599827355</v>
       </c>
       <c r="D29">
-        <v>0.01166600150335398</v>
+        <v>0.02031874999850892</v>
       </c>
       <c r="E29">
-        <v>16.72876378544619</v>
+        <v>1.199971540566396</v>
       </c>
       <c r="F29">
-        <v>0.05091651332727965</v>
+        <v>-0.1731434840046749</v>
       </c>
       <c r="G29">
-        <v>0.09991320347135224</v>
+        <v>0.1747642302304248</v>
       </c>
       <c r="H29">
-        <v>6.107683179574565e-06</v>
+        <v>0.9729503854350254</v>
       </c>
     </row>
     <row r="30">
@@ -1360,26 +1360,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious):quality_score_out_of_5</t>
+          <t>specific_factorOthers' negative behaviours:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C30">
-        <v>-0.01441322549287863</v>
+        <v>-0.04149564449495707</v>
       </c>
       <c r="D30">
-        <v>9.360583149778906e-18</v>
+        <v>0.02235606445686533</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>4.8800285819117</v>
       </c>
       <c r="F30">
-        <v>-0.01441322549287875</v>
+        <v>-0.09908890087734988</v>
       </c>
       <c r="G30">
-        <v>-0.01441322549287851</v>
+        <v>0.01637469408226805</v>
       </c>
       <c r="H30">
-        <v>4.134202744520385e-16</v>
+        <v>0.1238420534387593</v>
       </c>
     </row>
     <row r="31">
@@ -1390,26 +1390,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning:quality_score_out_of_5</t>
+          <t>specific_factorOthers' negative emotions:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.01630289155753079</v>
+        <v>-0.03875858283708637</v>
       </c>
       <c r="D31">
-        <v>0.01688798170163598</v>
+        <v>0.01040222711687504</v>
       </c>
       <c r="E31">
-        <v>1.316884563556875</v>
+        <v>3.377909792557458</v>
       </c>
       <c r="F31">
-        <v>-0.1072422453833689</v>
+        <v>-0.06976928529354794</v>
       </c>
       <c r="G31">
-        <v>0.1393522188449817</v>
+        <v>-0.007673042615831762</v>
       </c>
       <c r="H31">
-        <v>0.4779484577226506</v>
+        <v>0.02740248330956833</v>
       </c>
     </row>
     <row r="32">
@@ -1420,26 +1420,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation:quality_score_out_of_5</t>
+          <t>specific_factorOthers' positive behaviours:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C32">
-        <v>-0.09453710100871053</v>
+        <v>0.05373834712181162</v>
       </c>
       <c r="D32">
-        <v>0.1206387895358786</v>
+        <v>0.01150343416733671</v>
       </c>
       <c r="E32">
-        <v>1.022221591693415</v>
+        <v>6.648299395402391</v>
       </c>
       <c r="F32">
-        <v>-0.9139729123880314</v>
+        <v>0.02628836593928919</v>
       </c>
       <c r="G32">
-        <v>0.8767397243791734</v>
+        <v>0.08110734951252373</v>
       </c>
       <c r="H32">
-        <v>0.5735969105723776</v>
+        <v>0.002604019861392154</v>
       </c>
     </row>
     <row r="33">
@@ -1450,26 +1450,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorNegative life events:quality_score_out_of_5</t>
+          <t>specific_factorOthers' positive emotions:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.02953482427451322</v>
+        <v>0.06736309786890028</v>
       </c>
       <c r="D33">
-        <v>7.247512510705562e-18</v>
+        <v>0.01114634262607143</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>4.181160121405167</v>
       </c>
       <c r="F33">
-        <v>0.02953482427451313</v>
+        <v>0.03702283918244246</v>
       </c>
       <c r="G33">
-        <v>0.02953482427451332</v>
+        <v>0.09757928102187573</v>
       </c>
       <c r="H33">
-        <v>1.561738722248235e-16</v>
+        <v>0.003255015841457486</v>
       </c>
     </row>
     <row r="34">
@@ -1480,26 +1480,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factornegative personality:quality_score_out_of_5</t>
+          <t>specific_factorPerformance goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C34">
-        <v>-0.1574653301147098</v>
+        <v>-0.03400580175716373</v>
       </c>
       <c r="D34">
-        <v>0.05550396115364663</v>
+        <v>0.06189039292422858</v>
       </c>
       <c r="E34">
-        <v>1.071322119829899</v>
+        <v>2.248193511254205</v>
       </c>
       <c r="F34">
-        <v>-0.6423751691755645</v>
+        <v>-0.2673727968765656</v>
       </c>
       <c r="G34">
-        <v>0.4174782746825588</v>
+        <v>0.2031292789720564</v>
       </c>
       <c r="H34">
-        <v>0.2004906917804437</v>
+        <v>0.6322992202304869</v>
       </c>
     </row>
     <row r="35">
@@ -1510,26 +1510,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality:quality_score_out_of_5</t>
+          <t>specific_factorPersonal responsibility for others' motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C35">
-        <v>-0.005675413084164995</v>
+        <v>0.07457359108967607</v>
       </c>
       <c r="D35">
-        <v>0.008587761392103948</v>
+        <v>0.01012906981673843</v>
       </c>
       <c r="E35">
-        <v>1.317128675950272</v>
+        <v>1.404002091337819</v>
       </c>
       <c r="F35">
-        <v>-0.06858382140229438</v>
+        <v>0.007576823301244454</v>
       </c>
       <c r="G35">
-        <v>0.05727794931145203</v>
+        <v>0.1409038551575514</v>
       </c>
       <c r="H35">
-        <v>0.6052016675392591</v>
+        <v>0.04315772510212691</v>
       </c>
     </row>
     <row r="36">
@@ -1540,26 +1540,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorothers abilities:quality_score_out_of_5</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.04639016634370466</v>
+        <v>0.06255654613974994</v>
       </c>
       <c r="D36">
-        <v>0.01605759104799182</v>
+        <v>0.01911428266250062</v>
       </c>
       <c r="E36">
-        <v>1.216667704465556</v>
+        <v>2.108800332452199</v>
       </c>
       <c r="F36">
-        <v>-0.08871005353920522</v>
+        <v>-0.01566719292114155</v>
       </c>
       <c r="G36">
-        <v>0.1798143547120834</v>
+        <v>0.1400191942868871</v>
       </c>
       <c r="H36">
-        <v>0.1748235301262219</v>
+        <v>0.07622126714476589</v>
       </c>
     </row>
     <row r="37">
@@ -1570,26 +1570,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorOthers positive behaviour:quality_score_out_of_5</t>
+          <t>specific_factorPositive attitudes:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.06410632771054611</v>
+        <v>0.06428876613991054</v>
       </c>
       <c r="D37">
-        <v>0.01639456016055026</v>
+        <v>0.007267997048051283</v>
       </c>
       <c r="E37">
-        <v>1.450796996114304</v>
+        <v>2.433959846415319</v>
       </c>
       <c r="F37">
-        <v>-0.0392501795422284</v>
+        <v>0.03786750280620897</v>
       </c>
       <c r="G37">
-        <v>0.1661056024134523</v>
+        <v>0.09062020556583329</v>
       </c>
       <c r="H37">
-        <v>0.09714213257019605</v>
+        <v>0.006563403720409362</v>
       </c>
     </row>
     <row r="38">
@@ -1600,26 +1600,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities:quality_score_out_of_5</t>
+          <t>specific_factorPositive beliefs (religious):quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.06801194883554471</v>
+        <v>0.04367381064204196</v>
       </c>
       <c r="D38">
-        <v>0.01956728415764249</v>
+        <v>6.840294856954595e-20</v>
       </c>
       <c r="E38">
-        <v>2.186034276149339</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>-0.009567209819479321</v>
+        <v>0.04367381064204196</v>
       </c>
       <c r="G38">
-        <v>0.1447772677686178</v>
+        <v>0.04367381064204196</v>
       </c>
       <c r="H38">
-        <v>0.0646553570156079</v>
+        <v>9.964545757134015e-19</v>
       </c>
     </row>
     <row r="39">
@@ -1630,26 +1630,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorothers' autonomous motivation:quality_score_out_of_5</t>
+          <t>specific_factorPositive beliefs about knowledge and learning:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.0501615791016651</v>
+        <v>0.05327101077407797</v>
       </c>
       <c r="D39">
-        <v>0.02757053154597467</v>
+        <v>0.01401360552639272</v>
       </c>
       <c r="E39">
-        <v>2.279003876406801</v>
+        <v>1.724816415803886</v>
       </c>
       <c r="F39">
-        <v>-0.05548003158934558</v>
+        <v>-0.01719777654781423</v>
       </c>
       <c r="G39">
-        <v>0.1546925446704603</v>
+        <v>0.1232131857249988</v>
       </c>
       <c r="H39">
-        <v>0.1944944627306727</v>
+        <v>0.07861357680894974</v>
       </c>
     </row>
     <row r="40">
@@ -1660,26 +1660,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation:quality_score_out_of_5</t>
+          <t>specific_factorPrior positive related experiences:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.04579090914321469</v>
+        <v>0.0393255947335332</v>
       </c>
       <c r="D40">
-        <v>0.02504335867033879</v>
+        <v>0.01235004409004451</v>
       </c>
       <c r="E40">
-        <v>3.396329206979185</v>
+        <v>8.783879728208785</v>
       </c>
       <c r="F40">
-        <v>-0.02885657908215553</v>
+        <v>0.01130253001738715</v>
       </c>
       <c r="G40">
-        <v>0.1199304880698942</v>
+        <v>0.06728693587355107</v>
       </c>
       <c r="H40">
-        <v>0.1538785392835481</v>
+        <v>0.01142526422223659</v>
       </c>
     </row>
     <row r="41">
@@ -1690,26 +1690,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation:quality_score_out_of_5</t>
+          <t>specific_factorSelf-efficacy:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.001673371617200157</v>
+        <v>0.07018454414455276</v>
       </c>
       <c r="D41">
-        <v>0.02174877627096271</v>
+        <v>0.01225599798917611</v>
       </c>
       <c r="E41">
-        <v>1.213466633472124</v>
+        <v>5.952123625465277</v>
       </c>
       <c r="F41">
-        <v>-0.1805623347427532</v>
+        <v>0.04023048393222656</v>
       </c>
       <c r="G41">
-        <v>0.1837980005620546</v>
+        <v>0.1000125678894292</v>
       </c>
       <c r="H41">
-        <v>0.9493646774727629</v>
+        <v>0.001254006818748448</v>
       </c>
     </row>
     <row r="42">
@@ -1720,26 +1720,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours:quality_score_out_of_5</t>
+          <t>specific_factorSocial competence:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C42">
-        <v>-0.03542279009792639</v>
+        <v>0.09943277760230591</v>
       </c>
       <c r="D42">
-        <v>0.02528783719334277</v>
+        <v>0.007742181276977358</v>
       </c>
       <c r="E42">
-        <v>3.811650629578638</v>
+        <v>1.453866855664184</v>
       </c>
       <c r="F42">
-        <v>-0.1066306458001991</v>
+        <v>0.05100852969308993</v>
       </c>
       <c r="G42">
-        <v>0.03614656958564851</v>
+        <v>0.1473905842650174</v>
       </c>
       <c r="H42">
-        <v>0.2370433230209134</v>
+        <v>0.01788359322849713</v>
       </c>
     </row>
     <row r="43">
@@ -1750,26 +1750,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours:quality_score_out_of_5</t>
+          <t>specific_factorSocial connection/support:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C43">
-        <v>-0.07527123740587667</v>
+        <v>0.08859612714154796</v>
       </c>
       <c r="D43">
-        <v>0.007944068904442891</v>
+        <v>0.02789171383651192</v>
       </c>
       <c r="E43">
-        <v>3.600303196132593</v>
+        <v>6.147009010809538</v>
       </c>
       <c r="F43">
-        <v>-0.09815319228887705</v>
+        <v>0.02097109389862405</v>
       </c>
       <c r="G43">
-        <v>-0.05230973620899854</v>
+        <v>0.1554141700714414</v>
       </c>
       <c r="H43">
-        <v>0.001125434336269735</v>
+        <v>0.01834317003569833</v>
       </c>
     </row>
     <row r="44">
@@ -1780,26 +1780,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative emotions:quality_score_out_of_5</t>
+          <t>specific_factorStyle-related beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C44">
-        <v>-0.04040197378656098</v>
+        <v>0.0921270832948738</v>
       </c>
       <c r="D44">
-        <v>0.01639456016055026</v>
+        <v>0.04934971452581238</v>
       </c>
       <c r="E44">
-        <v>1.450796996114303</v>
+        <v>1.744114651857386</v>
       </c>
       <c r="F44">
-        <v>-0.1429038286296272</v>
+        <v>-0.1516016920101529</v>
       </c>
       <c r="G44">
-        <v>0.06295736005228787</v>
+        <v>0.3252951058372892</v>
       </c>
       <c r="H44">
-        <v>0.1781197516680834</v>
+        <v>0.2202980511194225</v>
       </c>
     </row>
     <row r="45">
@@ -1810,596 +1810,596 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions:quality_score_out_of_5</t>
+          <t>specific_factorWell-being:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C45">
-        <v>-0.04041866427420267</v>
+        <v>0.09716235266467199</v>
       </c>
       <c r="D45">
-        <v>0.01639656533175128</v>
+        <v>0.01412134319737775</v>
       </c>
       <c r="E45">
-        <v>2.264674696354822</v>
+        <v>7.05291656162086</v>
       </c>
       <c r="F45">
-        <v>-0.1032789096474953</v>
+        <v>0.06404113422306699</v>
       </c>
       <c r="G45">
-        <v>0.02276316201908132</v>
+        <v>0.1300697516004521</v>
       </c>
       <c r="H45">
-        <v>0.1178521422567645</v>
+        <v>0.0002230736827932275</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive behaviours:quality_score_out_of_5</t>
+          <t>specific_factorAmotivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.0382648100709471</v>
+        <v>0.08731538004779417</v>
       </c>
       <c r="D46">
-        <v>0.01404513495542479</v>
+        <v>0.01684798580556057</v>
       </c>
       <c r="E46">
-        <v>3.51486499696865</v>
+        <v>3.686928339230077</v>
       </c>
       <c r="F46">
-        <v>-0.002929253164665527</v>
+        <v>0.03913187137984899</v>
       </c>
       <c r="G46">
-        <v>0.07932922519694717</v>
+        <v>0.1350937773015805</v>
       </c>
       <c r="H46">
-        <v>0.06065648244827947</v>
+        <v>0.008144257027642758</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours:quality_score_out_of_5</t>
+          <t>specific_factorAutonomous causality orientation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.06600848336084758</v>
+        <v>-0.05169951550408074</v>
       </c>
       <c r="D47">
-        <v>0.03780459354362502</v>
+        <v>0.03211593857551634</v>
       </c>
       <c r="E47">
-        <v>1.076300637376377</v>
+        <v>1.078116240108604</v>
       </c>
       <c r="F47">
-        <v>-0.32819094279582</v>
+        <v>-0.3766668769155628</v>
       </c>
       <c r="G47">
-        <v>0.4406270632166781</v>
+        <v>0.2845981730367165</v>
       </c>
       <c r="H47">
-        <v>0.3172654208504938</v>
+        <v>0.3402996822390356</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive emotions:quality_score_out_of_5</t>
+          <t>specific_factorAutonomous motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.04373757473305347</v>
+        <v>-0.02037722048447542</v>
       </c>
       <c r="D48">
-        <v>0.01545509300967682</v>
+        <v>0.01046073342162003</v>
       </c>
       <c r="E48">
-        <v>1.2138174199828</v>
+        <v>9.343685101306335</v>
       </c>
       <c r="F48">
-        <v>-0.08686767315180807</v>
+        <v>-0.04388364178558108</v>
       </c>
       <c r="G48">
-        <v>0.1728647540697907</v>
+        <v>0.00315175072410597</v>
       </c>
       <c r="H48">
-        <v>0.1792951661819492</v>
+        <v>0.08201650340214194</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions:quality_score_out_of_5</t>
+          <t>specific_factorControlled causality orientation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.07775688421362585</v>
+        <v>0.1673006870816003</v>
       </c>
       <c r="D49">
-        <v>0.01498609515370286</v>
+        <v>0.03806995872970299</v>
       </c>
       <c r="E49">
-        <v>1.993960916171818</v>
+        <v>1.078116240108601</v>
       </c>
       <c r="F49">
-        <v>0.01324592024856793</v>
+        <v>-0.2349185842310721</v>
       </c>
       <c r="G49">
-        <v>0.1416232216704373</v>
+        <v>0.5206023388011326</v>
       </c>
       <c r="H49">
-        <v>0.03528474440962704</v>
+        <v>0.1274351603589296</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorperformance goals:quality_score_out_of_5</t>
+          <t>specific_factorControlled motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C50">
-        <v>-0.1402089299960347</v>
+        <v>0.04293679311290504</v>
       </c>
       <c r="D50">
-        <v>0.02491171919005128</v>
+        <v>0.01205682742149123</v>
       </c>
       <c r="E50">
-        <v>1.761808012946366</v>
+        <v>9.318636713109587</v>
       </c>
       <c r="F50">
-        <v>-0.2575506249998769</v>
+        <v>0.01582895012035797</v>
       </c>
       <c r="G50">
-        <v>-0.01879192959859658</v>
+        <v>0.06998156372035257</v>
       </c>
       <c r="H50">
-        <v>0.03930526557430021</v>
+        <v>0.005758394983212489</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals:quality_score_out_of_5</t>
+          <t>specific_factorEmotional intelligence:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.009346705973477726</v>
+        <v>-0.04818107304116356</v>
       </c>
       <c r="D51">
-        <v>0.03061359254267447</v>
+        <v>0.01502993624991164</v>
       </c>
       <c r="E51">
-        <v>1.722759465205179</v>
+        <v>2.716781455215567</v>
       </c>
       <c r="F51">
-        <v>-0.1439187504059418</v>
+        <v>-0.09867666514599815</v>
       </c>
       <c r="G51">
-        <v>0.1621742648410405</v>
+        <v>0.002562002460738854</v>
       </c>
       <c r="H51">
-        <v>0.7929872326322212</v>
+        <v>0.05626872994451033</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorpersonal responsibility for others:quality_score_out_of_5</t>
+          <t>specific_factorEntity beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.07685729130255213</v>
+        <v>0.06027083320128038</v>
       </c>
       <c r="D52">
-        <v>0.01283227175858636</v>
+        <v>0.003077696627811012</v>
       </c>
       <c r="E52">
-        <v>1.594517517093711</v>
+        <v>1.020646191757619</v>
       </c>
       <c r="F52">
-        <v>0.005896286777341529</v>
+        <v>0.02305473617167525</v>
       </c>
       <c r="G52">
-        <v>0.1470481229575942</v>
+        <v>0.097320117834246</v>
       </c>
       <c r="H52">
-        <v>0.0442221814642278</v>
+        <v>0.03063301176492338</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation:quality_score_out_of_5</t>
+          <t>specific_factorExternal pressure in terms of constraints:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.07326959645319447</v>
+        <v>0.01841615792477905</v>
       </c>
       <c r="D53">
-        <v>0.0185018129994116</v>
+        <v>0.01306507158435754</v>
       </c>
       <c r="E53">
-        <v>2.195615119112222</v>
+        <v>2.287442046059017</v>
       </c>
       <c r="F53">
-        <v>0.0002191462733124938</v>
+        <v>-0.03153063566201511</v>
       </c>
       <c r="G53">
-        <v>0.1455422103172028</v>
+        <v>0.06827120425608887</v>
       </c>
       <c r="H53">
-        <v>0.04970362781243805</v>
+        <v>0.279216924858618</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes:quality_score_out_of_5</t>
+          <t>specific_factorExternal pressures:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.06159889746560978</v>
+        <v>0.07015528004527731</v>
       </c>
       <c r="D54">
-        <v>0.006968140777248457</v>
+        <v>0.007416047291459604</v>
       </c>
       <c r="E54">
-        <v>2.716443739886342</v>
+        <v>3.615293537532118</v>
       </c>
       <c r="F54">
-        <v>0.03811394668127914</v>
+        <v>0.04874823743432311</v>
       </c>
       <c r="G54">
-        <v>0.08501583809321291</v>
+        <v>0.09149790016157142</v>
       </c>
       <c r="H54">
-        <v>0.004434901801468679</v>
+        <v>0.001111523223544237</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious):quality_score_out_of_5</t>
+          <t>specific_factorExtrinsic goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.04367381064204197</v>
+        <v>0.08383205298854228</v>
       </c>
       <c r="D55">
-        <v>5.175373975508412e-18</v>
+        <v>0.03299676574408392</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>1.735526194746464</v>
       </c>
       <c r="F55">
-        <v>0.04367381064204191</v>
+        <v>-0.08065713591775256</v>
       </c>
       <c r="G55">
-        <v>0.04367381064204203</v>
+        <v>0.2438761570776428</v>
       </c>
       <c r="H55">
-        <v>7.539185352046943e-17</v>
+        <v>0.1443380018260187</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning:quality_score_out_of_5</t>
+          <t>specific_factorHarmonious passion:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.06285932098835968</v>
+        <v>0.02605445938134955</v>
       </c>
       <c r="D56">
-        <v>0.01793085530691093</v>
+        <v>0.01975668198901431</v>
       </c>
       <c r="E56">
-        <v>1.805520507380918</v>
+        <v>1.47436696647624</v>
       </c>
       <c r="F56">
-        <v>-0.02274124001617052</v>
+        <v>-0.09545535447711363</v>
       </c>
       <c r="G56">
-        <v>0.1475449153598417</v>
+        <v>0.1467992288085704</v>
       </c>
       <c r="H56">
-        <v>0.08378502914895951</v>
+        <v>0.3553218039424132</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorprior positive related experiences:quality_score_out_of_5</t>
+          <t>specific_factorIll-being:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.03877211628556721</v>
+        <v>0.07346175915386975</v>
       </c>
       <c r="D57">
-        <v>0.0105837277188414</v>
+        <v>0.02399356164837677</v>
       </c>
       <c r="E57">
-        <v>4.021386488262848</v>
+        <v>7.050869375665415</v>
       </c>
       <c r="F57">
-        <v>0.009467669851216949</v>
+        <v>0.01693983159844386</v>
       </c>
       <c r="G57">
-        <v>0.06801002274197333</v>
+        <v>0.1295156668824177</v>
       </c>
       <c r="H57">
-        <v>0.02128297504673394</v>
+        <v>0.01797558799357139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorself-efficacy:quality_score_out_of_5</t>
+          <t>specific_factorIncremental beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.05723736488152002</v>
+        <v>-0.01252505709755675</v>
       </c>
       <c r="D58">
-        <v>0.01425606127957553</v>
+        <v>0.00246844075294876</v>
       </c>
       <c r="E58">
-        <v>2.063779702267289</v>
+        <v>1.356622718987588</v>
       </c>
       <c r="F58">
-        <v>-0.002257647148253838</v>
+        <v>-0.02977909861747009</v>
       </c>
       <c r="G58">
-        <v>0.1163286028583996</v>
+        <v>0.004736446285899242</v>
       </c>
       <c r="H58">
-        <v>0.05379237679508426</v>
+        <v>0.07637599439667757</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy:quality_score_out_of_5</t>
+          <t>specific_factorInternal pressures:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.08991902302555554</v>
+        <v>0.04117584882788371</v>
       </c>
       <c r="D59">
-        <v>0.01706334278771078</v>
+        <v>0.009834121090746892</v>
       </c>
       <c r="E59">
-        <v>3.477278850407439</v>
+        <v>2.007493568147938</v>
       </c>
       <c r="F59">
-        <v>0.03982077785415764</v>
+        <v>-0.0009626668994231585</v>
       </c>
       <c r="G59">
-        <v>0.139566321262062</v>
+        <v>0.08316839544746187</v>
       </c>
       <c r="H59">
-        <v>0.009013967208537855</v>
+        <v>0.05218846930959729</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorSocial competence:quality_score_out_of_5</t>
+          <t>specific_factorIntrinsic goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.101898305881731</v>
+        <v>-0.01609118905134127</v>
       </c>
       <c r="D60">
-        <v>0.007392094417066742</v>
+        <v>0.02599124133137875</v>
       </c>
       <c r="E60">
-        <v>1.59647985695462</v>
+        <v>1.735526194746464</v>
       </c>
       <c r="F60">
-        <v>0.06127644580364595</v>
+        <v>-0.1449252029408179</v>
       </c>
       <c r="G60">
-        <v>0.1421831646570433</v>
+        <v>0.1132793579754397</v>
       </c>
       <c r="H60">
-        <v>0.01186637401874092</v>
+        <v>0.6071819070334179</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support:quality_score_out_of_5</t>
+          <t>specific_factorInvitation from others' to help:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.07762543686142284</v>
+        <v>-0.03483659591031813</v>
       </c>
       <c r="D61">
-        <v>0.02321104891635253</v>
+        <v>0.006173303599556391</v>
       </c>
       <c r="E61">
-        <v>5.824316926390313</v>
+        <v>1.538043136195942</v>
       </c>
       <c r="F61">
-        <v>0.02056575741314537</v>
+        <v>-0.07061589791237927</v>
       </c>
       <c r="G61">
-        <v>0.1341810772956361</v>
+        <v>0.00103223063505084</v>
       </c>
       <c r="H61">
-        <v>0.01610497149542302</v>
+        <v>0.05222009517705013</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs:quality_score_out_of_5</t>
+          <t>specific_factorLow Personal responsibility for others' motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.09260233995121436</v>
+        <v>-0.009784527200719066</v>
       </c>
       <c r="D62">
-        <v>0.04908708749191692</v>
+        <v>0.006173303570949599</v>
       </c>
       <c r="E62">
-        <v>1.76598928912657</v>
+        <v>1.538043136195944</v>
       </c>
       <c r="F62">
-        <v>-0.1464971781252694</v>
+        <v>-0.04563604797586975</v>
       </c>
       <c r="G62">
-        <v>0.3214789987859455</v>
+        <v>0.02609216636800341</v>
       </c>
       <c r="H62">
-        <v>0.2155582522854864</v>
+        <v>0.2886906077744828</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorwell-being:quality_score_out_of_5</t>
+          <t>specific_factorMastery goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.07593915462725373</v>
+        <v>-0.04275870845774113</v>
       </c>
       <c r="D63">
-        <v>0.01058372771744842</v>
+        <v>0.01946909036773996</v>
       </c>
       <c r="E63">
-        <v>4.02138648826284</v>
+        <v>2.207259358330846</v>
       </c>
       <c r="F63">
-        <v>0.04672797162917617</v>
+        <v>-0.1188845595562716</v>
       </c>
       <c r="G63">
-        <v>0.1050205682744682</v>
+        <v>0.033866895626356</v>
       </c>
       <c r="H63">
-        <v>0.001943563685859225</v>
+        <v>0.1470414258666854</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorWell-being:quality_score_out_of_5</t>
+          <t>specific_factorNeed frustration:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.1023747035777303</v>
+        <v>0.07376393617128062</v>
       </c>
       <c r="D64">
-        <v>0.01616734296717556</v>
+        <v>0.01089335938309174</v>
       </c>
       <c r="E64">
-        <v>6.061305849029953</v>
+        <v>7.503743235173665</v>
       </c>
       <c r="F64">
-        <v>0.06318704813108714</v>
+        <v>0.04844793707600159</v>
       </c>
       <c r="G64">
-        <v>0.1412471565927605</v>
+        <v>0.09898522307349734</v>
       </c>
       <c r="H64">
-        <v>0.0006843543824175968</v>
+        <v>0.0001879827703491671</v>
       </c>
     </row>
     <row r="65">
@@ -2410,26 +2410,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation:quality_score_out_of_5</t>
+          <t>specific_factorNeed satisfaction:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.08898506427427204</v>
+        <v>-0.03275366736349693</v>
       </c>
       <c r="D65">
-        <v>0.0169828857810996</v>
+        <v>0.009830582237963207</v>
       </c>
       <c r="E65">
-        <v>3.716902913308957</v>
+        <v>8.520011036847977</v>
       </c>
       <c r="F65">
-        <v>0.04059599879628654</v>
+        <v>-0.05514017356277341</v>
       </c>
       <c r="G65">
-        <v>0.136957701180497</v>
+        <v>-0.01033424821737387</v>
       </c>
       <c r="H65">
-        <v>0.007680292217471631</v>
+        <v>0.0094549753468543</v>
       </c>
     </row>
     <row r="66">
@@ -2440,26 +2440,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation:quality_score_out_of_5</t>
+          <t>specific_factorNegative personality:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C66">
-        <v>-0.01311108700430013</v>
+        <v>0.06309889769986796</v>
       </c>
       <c r="D66">
-        <v>0.01305360872552823</v>
+        <v>0.00982249574404662</v>
       </c>
       <c r="E66">
-        <v>1.099565283677869</v>
+        <v>2.552230260569997</v>
       </c>
       <c r="F66">
-        <v>-0.1463145996932352</v>
+        <v>0.02857182671872453</v>
       </c>
       <c r="G66">
-        <v>0.1205594016950165</v>
+        <v>0.09747558244851928</v>
       </c>
       <c r="H66">
-        <v>0.486221948456805</v>
+        <v>0.0122195916198513</v>
       </c>
     </row>
     <row r="67">
@@ -2470,26 +2470,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation:quality_score_out_of_5</t>
+          <t>specific_factorObsessive passion:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C67">
-        <v>-0.01065195029422083</v>
+        <v>0.09079881804124741</v>
       </c>
       <c r="D67">
-        <v>0.03691024049750488</v>
+        <v>0.01975668198901439</v>
       </c>
       <c r="E67">
-        <v>1.6859594942828</v>
+        <v>1.47436696647624</v>
       </c>
       <c r="F67">
-        <v>-0.1987878508751167</v>
+        <v>-0.03074794490200033</v>
       </c>
       <c r="G67">
-        <v>0.1782411250325087</v>
+        <v>0.2096993202862654</v>
       </c>
       <c r="H67">
-        <v>0.8044164199978125</v>
+        <v>0.07562403936632192</v>
       </c>
     </row>
     <row r="68">
@@ -2500,26 +2500,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation:quality_score_out_of_5</t>
+          <t>specific_factorOthers' abilities:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C68">
-        <v>-0.02204813822721889</v>
+        <v>-0.1045224991160132</v>
       </c>
       <c r="D68">
-        <v>0.01201454602203757</v>
+        <v>0.022195174216015</v>
       </c>
       <c r="E68">
-        <v>7.704232146914523</v>
+        <v>1.310227157204998</v>
       </c>
       <c r="F68">
-        <v>-0.04990205545582461</v>
+        <v>-0.2628835664089768</v>
       </c>
       <c r="G68">
-        <v>0.005840049439961886</v>
+        <v>0.0593225012909635</v>
       </c>
       <c r="H68">
-        <v>0.1051990036141458</v>
+        <v>0.08863195131181682</v>
       </c>
     </row>
     <row r="69">
@@ -2530,26 +2530,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation:quality_score_out_of_5</t>
+          <t>specific_factorOthers' autonomous motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.2045935631232809</v>
+        <v>-0.05788622713718577</v>
       </c>
       <c r="D69">
-        <v>0.06016380225870614</v>
+        <v>0.04352552082834486</v>
       </c>
       <c r="E69">
-        <v>1.099565283677872</v>
+        <v>3.701805761083114</v>
       </c>
       <c r="F69">
-        <v>-0.3895602746394702</v>
+        <v>-0.180727746489576</v>
       </c>
       <c r="G69">
-        <v>0.678498202658543</v>
+        <v>0.06673355147541794</v>
       </c>
       <c r="H69">
-        <v>0.1614351751045137</v>
+        <v>0.2591150555159962</v>
       </c>
     </row>
     <row r="70">
@@ -2560,26 +2560,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation:quality_score_out_of_5</t>
+          <t>specific_factorOthers' controlled motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C70">
-        <v>-0.02390325406697982</v>
+        <v>0.01672306314557791</v>
       </c>
       <c r="D70">
-        <v>0.03293506197101973</v>
+        <v>0.01995173767404655</v>
       </c>
       <c r="E70">
-        <v>1.134954114954733</v>
+        <v>1.026071867373721</v>
       </c>
       <c r="F70">
-        <v>-0.3286542247454134</v>
+        <v>-0.2184801566901812</v>
       </c>
       <c r="G70">
-        <v>0.2853559139246529</v>
+        <v>0.2500899568865398</v>
       </c>
       <c r="H70">
-        <v>0.5881713774559287</v>
+        <v>0.5529750504916173</v>
       </c>
     </row>
     <row r="71">
@@ -2590,26 +2590,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation:quality_score_out_of_5</t>
+          <t>specific_factorOthers' negative behaviours:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.05319304098833667</v>
+        <v>0.1250011808487718</v>
       </c>
       <c r="D71">
-        <v>0.008720668922022229</v>
+        <v>0.0336883132627009</v>
       </c>
       <c r="E71">
-        <v>8.286506870805734</v>
+        <v>1.628885118412391</v>
       </c>
       <c r="F71">
-        <v>0.03324153177743294</v>
+        <v>-0.05596950202826759</v>
       </c>
       <c r="G71">
-        <v>0.07310217190733019</v>
+        <v>0.2980197145509757</v>
       </c>
       <c r="H71">
-        <v>0.0002496192519014697</v>
+        <v>0.08816210158837746</v>
       </c>
     </row>
     <row r="72">
@@ -2620,26 +2620,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factoremotional intelligence:quality_score_out_of_5</t>
+          <t>specific_factorOthers' negative emotions:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C72">
-        <v>-0.09521296730761997</v>
+        <v>0.06135610985867815</v>
       </c>
       <c r="D72">
-        <v>0.01760376752635288</v>
+        <v>0.005494417539101406</v>
       </c>
       <c r="E72">
-        <v>1.35664414988495</v>
+        <v>3.327062530726606</v>
       </c>
       <c r="F72">
-        <v>-0.2151881198455897</v>
+        <v>0.0448508011124933</v>
       </c>
       <c r="G72">
-        <v>0.02759353700770428</v>
+        <v>0.07782793046025387</v>
       </c>
       <c r="H72">
-        <v>0.06996331549331514</v>
+        <v>0.000940589117952235</v>
       </c>
     </row>
     <row r="73">
@@ -2650,26 +2650,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence:quality_score_out_of_5</t>
+          <t>specific_factorOthers' positive behaviours:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C73">
-        <v>-0.03403088251290753</v>
+        <v>0.003803876840958028</v>
       </c>
       <c r="D73">
-        <v>0.01547220580445998</v>
+        <v>0.009155384033242918</v>
       </c>
       <c r="E73">
-        <v>1.981632932519644</v>
+        <v>1.04739519713222</v>
       </c>
       <c r="F73">
-        <v>-0.1008661864635211</v>
+        <v>-0.1004553835542368</v>
       </c>
       <c r="G73">
-        <v>0.03311019553541932</v>
+        <v>0.1079805053502253</v>
       </c>
       <c r="H73">
-        <v>0.1599473955177856</v>
+        <v>0.7468201676627108</v>
       </c>
     </row>
     <row r="74">
@@ -2680,26 +2680,26 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorentity beliefs:quality_score_out_of_5</t>
+          <t>specific_factorOthers' positive emotions:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.06088397668019319</v>
+        <v>-0.03977430587509709</v>
       </c>
       <c r="D74">
-        <v>0.004225291757035371</v>
+        <v>0.007685984459054964</v>
       </c>
       <c r="E74">
-        <v>1.027576482384016</v>
+        <v>1.097628539731392</v>
       </c>
       <c r="F74">
-        <v>0.01055939815540282</v>
+        <v>-0.1185804534774205</v>
       </c>
       <c r="G74">
-        <v>0.1109009149830611</v>
+        <v>0.03952978040789651</v>
       </c>
       <c r="H74">
-        <v>0.04115456288824336</v>
+        <v>0.1054585294242991</v>
       </c>
     </row>
     <row r="75">
@@ -2710,26 +2710,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints:quality_score_out_of_5</t>
+          <t>specific_factorPerformance goals:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.01684408992768058</v>
+        <v>0.05773185969056951</v>
       </c>
       <c r="D75">
-        <v>0.012406671789766</v>
+        <v>0.007077269621906419</v>
       </c>
       <c r="E75">
-        <v>2.305454650089144</v>
+        <v>1.537364083956038</v>
       </c>
       <c r="F75">
-        <v>-0.03029025108243068</v>
+        <v>0.01663264154376507</v>
       </c>
       <c r="G75">
-        <v>0.06390368520372657</v>
+        <v>0.0986363178871664</v>
       </c>
       <c r="H75">
-        <v>0.2921248049906984</v>
+        <v>0.03003043556261555</v>
       </c>
     </row>
     <row r="76">
@@ -2740,26 +2740,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorexternal pressures:quality_score_out_of_5</t>
+          <t>specific_factorPersonal responsibility for others' motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.07075805246598334</v>
+        <v>-0.02956053169867462</v>
       </c>
       <c r="D76">
-        <v>0.0165151065112362</v>
+        <v>0.005978417016309153</v>
       </c>
       <c r="E76">
-        <v>1.003910793467754</v>
+        <v>1.283440304809595</v>
       </c>
       <c r="F76">
-        <v>-0.1361943229541873</v>
+        <v>-0.07525766405060004</v>
       </c>
       <c r="G76">
-        <v>0.2717930699683602</v>
+        <v>0.01626050191510811</v>
       </c>
       <c r="H76">
-        <v>0.1450006781545086</v>
+        <v>0.08659411970290479</v>
       </c>
     </row>
     <row r="77">
@@ -2770,26 +2770,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures:quality_score_out_of_5</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.07034890186841809</v>
+        <v>-0.03336023093611658</v>
       </c>
       <c r="D77">
-        <v>0.006811559751201715</v>
+        <v>0.03620256771456939</v>
       </c>
       <c r="E77">
-        <v>1.885165213570883</v>
+        <v>2.026364421391686</v>
       </c>
       <c r="F77">
-        <v>0.03935808984319071</v>
+        <v>-0.1850566308768477</v>
       </c>
       <c r="G77">
-        <v>0.10120450385298</v>
+        <v>0.1198889712059709</v>
       </c>
       <c r="H77">
-        <v>0.01122307962647719</v>
+        <v>0.4528439874745256</v>
       </c>
     </row>
     <row r="78">
@@ -2800,26 +2800,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals:quality_score_out_of_5</t>
+          <t>specific_factorPrior positive related experiences:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.1051206555993452</v>
+        <v>-0.01313695834063985</v>
       </c>
       <c r="D78">
-        <v>0.06021780959945728</v>
+        <v>0.006173303763387396</v>
       </c>
       <c r="E78">
-        <v>1.005553590337007</v>
+        <v>1.538043136195943</v>
       </c>
       <c r="F78">
-        <v>-0.5714782348648013</v>
+        <v>-0.0489814164911887</v>
       </c>
       <c r="G78">
-        <v>0.6966367551935526</v>
+        <v>0.02274129485928897</v>
       </c>
       <c r="H78">
-        <v>0.3291335277538209</v>
+        <v>0.2040440894292133</v>
       </c>
     </row>
     <row r="79">
@@ -2830,26 +2830,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorHarmonious passion:quality_score_out_of_5</t>
+          <t>specific_factorSelf-efficacy:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.02537358124754592</v>
+        <v>-0.02792299595730486</v>
       </c>
       <c r="D79">
-        <v>0.01802913488422912</v>
+        <v>0.006266549627399959</v>
       </c>
       <c r="E79">
-        <v>1.524496652828775</v>
+        <v>1.880474439139735</v>
       </c>
       <c r="F79">
-        <v>-0.08051372332631059</v>
+        <v>-0.05654344411848279</v>
       </c>
       <c r="G79">
-        <v>0.1306945809120019</v>
+        <v>0.0007433063768326333</v>
       </c>
       <c r="H79">
-        <v>0.3287420076922561</v>
+        <v>0.05236792366821254</v>
       </c>
     </row>
     <row r="80">
@@ -2860,26 +2860,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorIll-being:quality_score_out_of_5</t>
+          <t>specific_factorSocial connection/support:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.07412114243428787</v>
+        <v>-0.02811764272914605</v>
       </c>
       <c r="D80">
-        <v>0.0270440431162641</v>
+        <v>0.01823206572431614</v>
       </c>
       <c r="E80">
-        <v>6.168510489137944</v>
+        <v>1.518591017184258</v>
       </c>
       <c r="F80">
-        <v>0.008518476259749618</v>
+        <v>-0.1351284819085352</v>
       </c>
       <c r="G80">
-        <v>0.1390885048956632</v>
+        <v>0.07954157912265902</v>
       </c>
       <c r="H80">
-        <v>0.03254410198341326</v>
+        <v>0.2991781903189052</v>
       </c>
     </row>
     <row r="81">
@@ -2890,26 +2890,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs:quality_score_out_of_5</t>
+          <t>specific_factorStyle-related beliefs:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C81">
-        <v>-0.01116686925083462</v>
+        <v>0.0998789746776336</v>
       </c>
       <c r="D81">
-        <v>0.002611637936482059</v>
+        <v>0.03552896970635443</v>
       </c>
       <c r="E81">
-        <v>1.420328337008972</v>
+        <v>1.029661188738798</v>
       </c>
       <c r="F81">
-        <v>-0.0281690371084571</v>
+        <v>-0.3109752516813336</v>
       </c>
       <c r="G81">
-        <v>0.005841757961710097</v>
+        <v>0.4792813594306136</v>
       </c>
       <c r="H81">
-        <v>0.08898547187491118</v>
+        <v>0.211067423882346</v>
       </c>
     </row>
     <row r="82">
@@ -2920,986 +2920,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures:quality_score_out_of_5</t>
+          <t>specific_factorWell-being:quality_score_out_of_5</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.04296696690694002</v>
+        <v>-0.04910799935460895</v>
       </c>
       <c r="D82">
-        <v>0.007540895859701812</v>
+        <v>0.01278578451071469</v>
       </c>
       <c r="E82">
-        <v>2.011973325959015</v>
+        <v>4.340473357293382</v>
       </c>
       <c r="F82">
-        <v>0.0107315019040258</v>
+        <v>-0.08338084171123243</v>
       </c>
       <c r="G82">
-        <v>0.07511321822323751</v>
+        <v>-0.01471911932789499</v>
       </c>
       <c r="H82">
-        <v>0.02901686505107364</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>specific_factorIntrinsic goals:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C83">
-        <v>0.008262550688441932</v>
-      </c>
-      <c r="D83">
-        <v>0.03865562000764339</v>
-      </c>
-      <c r="E83">
-        <v>1.005553590337007</v>
-      </c>
-      <c r="F83">
-        <v>-0.443467780060599</v>
-      </c>
-      <c r="G83">
-        <v>0.4566455235632549</v>
-      </c>
-      <c r="H83">
-        <v>0.8657897725302413</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>specific_factorInvitation from others to help:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C84">
-        <v>-0.03324856995314002</v>
-      </c>
-      <c r="D84">
-        <v>0.006698994931882171</v>
-      </c>
-      <c r="E84">
-        <v>1.289700208473804</v>
-      </c>
-      <c r="F84">
-        <v>-0.08399160918761459</v>
-      </c>
-      <c r="G84">
-        <v>0.01766646031720694</v>
-      </c>
-      <c r="H84">
-        <v>0.08549591101487963</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>specific_factorlow personal responsibility for others:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C85">
-        <v>-0.008194787223165219</v>
-      </c>
-      <c r="D85">
-        <v>0.006698994893258696</v>
-      </c>
-      <c r="E85">
-        <v>1.289700208473804</v>
-      </c>
-      <c r="F85">
-        <v>-0.05905530241341099</v>
-      </c>
-      <c r="G85">
-        <v>0.04270816260967204</v>
-      </c>
-      <c r="H85">
-        <v>0.3991315809985885</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>specific_factorMastery goals:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C86">
-        <v>-0.0316807073924598</v>
-      </c>
-      <c r="D86">
-        <v>0.01203944466597104</v>
-      </c>
-      <c r="E86">
-        <v>2.172644528201059</v>
-      </c>
-      <c r="F86">
-        <v>-0.07957288570747674</v>
-      </c>
-      <c r="G86">
-        <v>0.01635738975934212</v>
-      </c>
-      <c r="H86">
-        <v>0.1093722794194478</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>specific_factorneed frustration:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C87">
-        <v>0.04235575643753065</v>
-      </c>
-      <c r="D87">
-        <v>0.0329350619710198</v>
-      </c>
-      <c r="E87">
-        <v>1.134954114954732</v>
-      </c>
-      <c r="F87">
-        <v>-0.2682988782965864</v>
-      </c>
-      <c r="G87">
-        <v>0.345030870244113</v>
-      </c>
-      <c r="H87">
-        <v>0.400907945593639</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>specific_factorNeed frustration:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C88">
-        <v>0.07931617071838086</v>
-      </c>
-      <c r="D88">
-        <v>0.01309023150941101</v>
-      </c>
-      <c r="E88">
-        <v>6.951815831431134</v>
-      </c>
-      <c r="F88">
-        <v>0.0484481452858285</v>
-      </c>
-      <c r="G88">
-        <v>0.1100328346481846</v>
-      </c>
-      <c r="H88">
-        <v>0.0005185419534282606</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>specific_factorneed satisfaction:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C89">
-        <v>-0.01683739993174417</v>
-      </c>
-      <c r="D89">
-        <v>0.03293506197101977</v>
-      </c>
-      <c r="E89">
-        <v>1.134954114954732</v>
-      </c>
-      <c r="F89">
-        <v>-0.3223343592649525</v>
-      </c>
-      <c r="G89">
-        <v>0.2918359521258783</v>
-      </c>
-      <c r="H89">
-        <v>0.6907576807512319</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>specific_factorNeed satisfaction:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C90">
-        <v>-0.04068304141092671</v>
-      </c>
-      <c r="D90">
-        <v>0.009658897319026617</v>
-      </c>
-      <c r="E90">
-        <v>7.733106674184982</v>
-      </c>
-      <c r="F90">
-        <v>-0.06302981810842655</v>
-      </c>
-      <c r="G90">
-        <v>-0.01829549062294055</v>
-      </c>
-      <c r="H90">
-        <v>0.003170799539873247</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>specific_factornegative personality:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C91">
-        <v>0.1589960606404087</v>
-      </c>
-      <c r="D91">
-        <v>0.01050642725206702</v>
-      </c>
-      <c r="E91">
-        <v>1.867347890155677</v>
-      </c>
-      <c r="F91">
-        <v>0.1114647361545422</v>
-      </c>
-      <c r="G91">
-        <v>0.205801590987358</v>
-      </c>
-      <c r="H91">
-        <v>0.005635936848975594</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>specific_factorNegative personality:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C92">
-        <v>0.05294196928005247</v>
-      </c>
-      <c r="D92">
-        <v>0.005095902754667302</v>
-      </c>
-      <c r="E92">
-        <v>2.010158905349108</v>
-      </c>
-      <c r="F92">
-        <v>0.03116136895315701</v>
-      </c>
-      <c r="G92">
-        <v>0.07467231388467975</v>
-      </c>
-      <c r="H92">
-        <v>0.008964968387458099</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>specific_factorObsessive passion:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C93">
-        <v>0.09012306484233121</v>
-      </c>
-      <c r="D93">
-        <v>0.01802913488422914</v>
-      </c>
-      <c r="E93">
-        <v>1.524496652828775</v>
-      </c>
-      <c r="F93">
-        <v>-0.01569785880637605</v>
-      </c>
-      <c r="G93">
-        <v>0.1939474455253942</v>
-      </c>
-      <c r="H93">
-        <v>0.0632784386741472</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>specific_factorOthers positive behaviour:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C94">
-        <v>0.002404109507604149</v>
-      </c>
-      <c r="D94">
-        <v>0.01760376752635284</v>
-      </c>
-      <c r="E94">
-        <v>1.356644149884951</v>
-      </c>
-      <c r="F94">
-        <v>-0.1201159654765161</v>
-      </c>
-      <c r="G94">
-        <v>0.1248520495825799</v>
-      </c>
-      <c r="H94">
-        <v>0.9088111162325967</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' abilities:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C95">
-        <v>-0.1065973205284703</v>
-      </c>
-      <c r="D95">
-        <v>0.02596889148871326</v>
-      </c>
-      <c r="E95">
-        <v>1.049951462454795</v>
-      </c>
-      <c r="F95">
-        <v>-0.3817360890722353</v>
-      </c>
-      <c r="G95">
-        <v>0.1858957346785245</v>
-      </c>
-      <c r="H95">
-        <v>0.1424087939332498</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>specific_factorothers' autonomous motivation:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C96">
-        <v>-0.1025100710303944</v>
-      </c>
-      <c r="D96">
-        <v>0.02971123403456847</v>
-      </c>
-      <c r="E96">
-        <v>1.513289093102842</v>
-      </c>
-      <c r="F96">
-        <v>-0.2723976732808378</v>
-      </c>
-      <c r="G96">
-        <v>0.07357580255651554</v>
-      </c>
-      <c r="H96">
-        <v>0.1085990940626324</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' autonomous motivation:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C97">
-        <v>0.03210023615030434</v>
-      </c>
-      <c r="D97">
-        <v>0.0280590486978497</v>
-      </c>
-      <c r="E97">
-        <v>2.707167605157832</v>
-      </c>
-      <c r="F97">
-        <v>-0.0628233451119015</v>
-      </c>
-      <c r="G97">
-        <v>0.1264482544238259</v>
-      </c>
-      <c r="H97">
-        <v>0.3434825929710643</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' controlled motivation:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C98">
-        <v>0.03010805774558752</v>
-      </c>
-      <c r="D98">
-        <v>0.02139154733418032</v>
-      </c>
-      <c r="E98">
-        <v>1.042682217219718</v>
-      </c>
-      <c r="F98">
-        <v>-0.2134232330333804</v>
-      </c>
-      <c r="G98">
-        <v>0.270116548609699</v>
-      </c>
-      <c r="H98">
-        <v>0.3861974531152608</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative behaviours:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C99">
-        <v>0.08038092658586904</v>
-      </c>
-      <c r="D99">
-        <v>0.004366903141405708</v>
-      </c>
-      <c r="E99">
-        <v>1.002044635296873</v>
-      </c>
-      <c r="F99">
-        <v>0.02532936650994784</v>
-      </c>
-      <c r="G99">
-        <v>0.1349464310844455</v>
-      </c>
-      <c r="H99">
-        <v>0.03428622872537358</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' negative behaviours:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C100">
-        <v>0.161626551304909</v>
-      </c>
-      <c r="D100">
-        <v>0.01618864460140042</v>
-      </c>
-      <c r="E100">
-        <v>1.263521905616497</v>
-      </c>
-      <c r="F100">
-        <v>0.0355242426773857</v>
-      </c>
-      <c r="G100">
-        <v>0.2826627235798528</v>
-      </c>
-      <c r="H100">
-        <v>0.03677465969168257</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative emotions:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C101">
-        <v>0.05499018780542573</v>
-      </c>
-      <c r="D101">
-        <v>0.01346548343685497</v>
-      </c>
-      <c r="E101">
-        <v>1.116255704802762</v>
-      </c>
-      <c r="F101">
-        <v>-0.07902234710968353</v>
-      </c>
-      <c r="G101">
-        <v>0.1870504165467779</v>
-      </c>
-      <c r="H101">
-        <v>0.1325153493020255</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' negative emotions:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C102">
-        <v>0.06386427168494913</v>
-      </c>
-      <c r="D102">
-        <v>0.006978042831324416</v>
-      </c>
-      <c r="E102">
-        <v>1.175289111666452</v>
-      </c>
-      <c r="F102">
-        <v>0.001167359254441096</v>
-      </c>
-      <c r="G102">
-        <v>0.1260610608773866</v>
-      </c>
-      <c r="H102">
-        <v>0.04893926358350457</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' positive emotions:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C103">
-        <v>-0.03787405489049903</v>
-      </c>
-      <c r="D103">
-        <v>0.007916192304247574</v>
-      </c>
-      <c r="E103">
-        <v>1.102718487450875</v>
-      </c>
-      <c r="F103">
-        <v>-0.1182703460135932</v>
-      </c>
-      <c r="G103">
-        <v>0.04301555081211653</v>
-      </c>
-      <c r="H103">
-        <v>0.1138834872952296</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>specific_factorPerformance goals:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C104">
-        <v>0.06005200623493492</v>
-      </c>
-      <c r="D104">
-        <v>0.006165634324962411</v>
-      </c>
-      <c r="E104">
-        <v>1.522944723297994</v>
-      </c>
-      <c r="F104">
-        <v>0.02379602443867279</v>
-      </c>
-      <c r="G104">
-        <v>0.09615022980315195</v>
-      </c>
-      <c r="H104">
-        <v>0.0235552172051629</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>specific_factorpersonal responsibility for others:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C105">
-        <v>-0.02969494118709925</v>
-      </c>
-      <c r="D105">
-        <v>0.006810928965069784</v>
-      </c>
-      <c r="E105">
-        <v>1.354272498176964</v>
-      </c>
-      <c r="F105">
-        <v>-0.07731125690116539</v>
-      </c>
-      <c r="G105">
-        <v>0.01805653140410887</v>
-      </c>
-      <c r="H105">
-        <v>0.09325788205745562</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>specific_factorPersonal responsibility for others' motivation:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C106">
-        <v>-0.03389101331630423</v>
-      </c>
-      <c r="D106">
-        <v>0.03635580216814459</v>
-      </c>
-      <c r="E106">
-        <v>2.010674671478829</v>
-      </c>
-      <c r="F106">
-        <v>-0.1872997267556349</v>
-      </c>
-      <c r="G106">
-        <v>0.1211315330099181</v>
-      </c>
-      <c r="H106">
-        <v>0.4490463215129324</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>specific_factorprior positive related experiences:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C107">
-        <v>-0.01154733211796572</v>
-      </c>
-      <c r="D107">
-        <v>0.006698995153078484</v>
-      </c>
-      <c r="E107">
-        <v>1.289700208473803</v>
-      </c>
-      <c r="F107">
-        <v>-0.06239581191220097</v>
-      </c>
-      <c r="G107">
-        <v>0.03936093868559492</v>
-      </c>
-      <c r="H107">
-        <v>0.2902223935201246</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>specific_factorself-efficacy:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C108">
-        <v>-0.02824405846183232</v>
-      </c>
-      <c r="D108">
-        <v>0.006698994918857643</v>
-      </c>
-      <c r="E108">
-        <v>1.289700208473803</v>
-      </c>
-      <c r="F108">
-        <v>-0.07901563798422154</v>
-      </c>
-      <c r="G108">
-        <v>0.02267366922757577</v>
-      </c>
-      <c r="H108">
-        <v>0.1046264012621152</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>specific_factorSelf-efficacy:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C109">
-        <v>-0.02524713357367821</v>
-      </c>
-      <c r="D109">
-        <v>0.01528548606635256</v>
-      </c>
-      <c r="E109">
-        <v>1.025233716659757</v>
-      </c>
-      <c r="F109">
-        <v>-0.2055619512830093</v>
-      </c>
-      <c r="G109">
-        <v>0.1567255778001018</v>
-      </c>
-      <c r="H109">
-        <v>0.342011716753355</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>specific_factorSocial connection/support:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>-0.03022108619493227</v>
-      </c>
-      <c r="D110">
-        <v>0.01671292108332845</v>
-      </c>
-      <c r="E110">
-        <v>1.534875736060444</v>
-      </c>
-      <c r="F110">
-        <v>-0.1269590970350908</v>
-      </c>
-      <c r="G110">
-        <v>0.06708640707797672</v>
-      </c>
-      <c r="H110">
-        <v>0.248790060591589</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>specific_factorstyle-related beliefs:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>0.06047887232744576</v>
-      </c>
-      <c r="D111">
-        <v>0.002650250801041332</v>
-      </c>
-      <c r="E111">
-        <v>1.316311474721074</v>
-      </c>
-      <c r="F111">
-        <v>0.04106232085349342</v>
-      </c>
-      <c r="G111">
-        <v>0.07984976265722049</v>
-      </c>
-      <c r="H111">
-        <v>0.01133891942275526</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>specific_factorStyle-related beliefs:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>0.1336488573988944</v>
-      </c>
-      <c r="D112">
-        <v>5.235657673693346e-18</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112">
-        <v>0.1336488573988943</v>
-      </c>
-      <c r="G112">
-        <v>0.1336488573988944</v>
-      </c>
-      <c r="H112">
-        <v>2.479020325154715e-17</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>specific_factorwell-being:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>-0.04163969101897635</v>
-      </c>
-      <c r="D113">
-        <v>0.00669899494476182</v>
-      </c>
-      <c r="E113">
-        <v>1.289700208473803</v>
-      </c>
-      <c r="F113">
-        <v>-0.09232920129297548</v>
-      </c>
-      <c r="G113">
-        <v>0.009265081443336711</v>
-      </c>
-      <c r="H113">
-        <v>0.06446790676838983</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>specific_factorWell-being:quality_score_out_of_5</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>-0.04968348216084929</v>
-      </c>
-      <c r="D114">
-        <v>0.01444835482859835</v>
-      </c>
-      <c r="E114">
-        <v>3.443980015734353</v>
-      </c>
-      <c r="F114">
-        <v>-0.09226427648526414</v>
-      </c>
-      <c r="G114">
-        <v>-0.006921308036967073</v>
-      </c>
-      <c r="H114">
-        <v>0.03324553164378082</v>
+        <v>0.01578721171617556</v>
       </c>
     </row>
   </sheetData>
@@ -3909,7 +2949,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3923,15 +2963,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>specific_factor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>quality_score_out_of_5</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>n_effect_sizes</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>k_studies</t>
         </is>
@@ -3943,14 +2988,19 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3959,14 +3009,19 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
       </c>
       <c r="C3">
-        <v>393</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3975,14 +3030,19 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3991,14 +3051,19 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4007,78 +3072,3967 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>3</v>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
       </c>
       <c r="C7">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>4</v>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
       </c>
       <c r="C8">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>2</v>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B10">
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Behavioral investment</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Coherence of mind</t>
+        </is>
+      </c>
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>53</v>
-      </c>
-      <c r="D10">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Harmonious passion</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Job security</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>28</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>58</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>26</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Negative beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Negative beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Negative life events</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Obsessive passion</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Opportunitiies for professional development</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>33</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>11</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
         <v>8</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Positive beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Positive personality</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>13</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>14</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>15</v>
+      </c>
+      <c r="E117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118">
+        <v>12</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Harmonious passion</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Job security</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>30</v>
+      </c>
+      <c r="E141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>33</v>
+      </c>
+      <c r="E145">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146">
+        <v>10</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>7</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Obsessive passion</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Opportunitiies for professional development</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+      <c r="D167">
+        <v>8</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>6</v>
+      </c>
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>12</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C176">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>7</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>6</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Negative beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>4</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Positive attitudes</t>
+        </is>
+      </c>
+      <c r="C188">
+        <v>4</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Positive beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Social competence</t>
+        </is>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>4</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
